--- a/current_state.xlsx
+++ b/current_state.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O133"/>
+  <dimension ref="A1:O283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,7 +560,9 @@
       <c r="N4" t="n">
         <v>0</v>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>481.52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -617,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>95.48038527526273</v>
+        <v>95.18987104987016</v>
       </c>
     </row>
     <row r="7">
@@ -646,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>112.0503852752627</v>
+        <v>111.7598710498702</v>
       </c>
     </row>
     <row r="8">
@@ -675,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>126.6825597627757</v>
+        <v>150.7394402981049</v>
       </c>
     </row>
     <row r="9">
@@ -1313,7 +1315,7 @@
         <v>81.52</v>
       </c>
       <c r="O30" t="n">
-        <v>89.48038527526273</v>
+        <v>89.18987104987016</v>
       </c>
     </row>
     <row r="31">
@@ -1339,10 +1341,10 @@
         <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>89.48038527526273</v>
+        <v>89.18987104987016</v>
       </c>
       <c r="O31" t="n">
-        <v>89.48038527526273</v>
+        <v>89.18987104987016</v>
       </c>
     </row>
     <row r="32">
@@ -1368,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>89.48038527526273</v>
+        <v>89.18987104987016</v>
       </c>
       <c r="O32" t="n">
         <v>121.52</v>
@@ -1397,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>95.48038527526273</v>
+        <v>95.18987104987016</v>
       </c>
       <c r="O33" t="n">
-        <v>106.0503852752627</v>
+        <v>105.7598710498702</v>
       </c>
     </row>
     <row r="34">
@@ -1571,10 +1573,10 @@
         <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>106.0503852752627</v>
+        <v>105.7598710498702</v>
       </c>
       <c r="O39" t="n">
-        <v>106.0503852752627</v>
+        <v>105.7598710498702</v>
       </c>
     </row>
     <row r="40">
@@ -1600,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>106.0503852752627</v>
+        <v>105.7598710498702</v>
       </c>
       <c r="O40" t="n">
-        <v>132.9695463294577</v>
+        <v>136.1314043665547</v>
       </c>
     </row>
     <row r="41">
@@ -1629,10 +1631,10 @@
         <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>112.0503852752627</v>
+        <v>111.7598710498702</v>
       </c>
       <c r="O41" t="n">
-        <v>120.6825597627757</v>
+        <v>144.7394402981049</v>
       </c>
     </row>
     <row r="42">
@@ -1681,16 +1683,16 @@
         <v>1</v>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>120.6825597627757</v>
+        <v>121.52</v>
       </c>
       <c r="O43" t="n">
-        <v>120.6825597627757</v>
+        <v>130.1314043665547</v>
       </c>
     </row>
     <row r="44">
@@ -1710,16 +1712,16 @@
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44" t="n">
-        <v>120.6825597627757</v>
+        <v>130.1314043665547</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5395463294577</v>
+        <v>130.1314043665547</v>
       </c>
     </row>
     <row r="45">
@@ -1742,13 +1744,13 @@
         <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>121.52</v>
+        <v>130.1314043665547</v>
       </c>
       <c r="O45" t="n">
-        <v>126.9695463294577</v>
+        <v>161.52</v>
       </c>
     </row>
     <row r="46">
@@ -1768,16 +1770,16 @@
         <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6825597627757</v>
+        <v>136.1314043665547</v>
       </c>
       <c r="O46" t="n">
-        <v>137.6466121087433</v>
+        <v>146.7014043665547</v>
       </c>
     </row>
     <row r="47">
@@ -1797,16 +1799,16 @@
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="n">
-        <v>126.9695463294577</v>
+        <v>143.52</v>
       </c>
       <c r="O47" t="n">
-        <v>126.9695463294577</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="48">
@@ -1826,16 +1828,16 @@
         <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>126.9695463294577</v>
+        <v>143.52</v>
       </c>
       <c r="O48" t="n">
-        <v>161.52</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="49">
@@ -1855,16 +1857,16 @@
         <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>132.9695463294577</v>
+        <v>143.52</v>
       </c>
       <c r="O49" t="n">
-        <v>143.5395463294577</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="50">
@@ -1884,16 +1886,16 @@
         <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N50" t="n">
-        <v>137.6466121087433</v>
+        <v>143.52</v>
       </c>
       <c r="O50" t="n">
-        <v>137.6466121087433</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="51">
@@ -1913,16 +1915,16 @@
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>137.6466121087433</v>
+        <v>143.52</v>
       </c>
       <c r="O51" t="n">
-        <v>163.6984381699549</v>
+        <v>154.04</v>
       </c>
     </row>
     <row r="52">
@@ -1942,16 +1944,16 @@
         <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="n">
-        <v>143.52</v>
+        <v>144.7394402981049</v>
       </c>
       <c r="O52" t="n">
-        <v>143.52</v>
+        <v>144.7394402981049</v>
       </c>
     </row>
     <row r="53">
@@ -1971,16 +1973,16 @@
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="n">
-        <v>143.52</v>
+        <v>144.7394402981049</v>
       </c>
       <c r="O53" t="n">
-        <v>143.52</v>
+        <v>152.7014043665547</v>
       </c>
     </row>
     <row r="54">
@@ -2000,16 +2002,16 @@
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N54" t="n">
-        <v>143.52</v>
+        <v>146.7014043665547</v>
       </c>
       <c r="O54" t="n">
-        <v>183.52</v>
+        <v>146.7014043665547</v>
       </c>
     </row>
     <row r="55">
@@ -2029,15 +2031,17 @@
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>143.52</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
+        <v>146.7014043665547</v>
+      </c>
+      <c r="O55" t="n">
+        <v>172.7520804215764</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2056,16 +2060,16 @@
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>143.5395463294577</v>
+        <v>150.7394402981049</v>
       </c>
       <c r="O56" t="n">
-        <v>143.5395463294577</v>
+        <v>161.7034926440726</v>
       </c>
     </row>
     <row r="57">
@@ -2085,16 +2089,16 @@
         <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>143.5395463294577</v>
+        <v>152.7014043665547</v>
       </c>
       <c r="O57" t="n">
-        <v>182.3183746150233</v>
+        <v>159.7769404530931</v>
       </c>
     </row>
     <row r="58">
@@ -2114,16 +2118,16 @@
         <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58" t="n">
-        <v>149.5395463294577</v>
+        <v>154.04</v>
       </c>
       <c r="O58" t="n">
-        <v>157.6984381699549</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="59">
@@ -2149,10 +2153,10 @@
         <v>2</v>
       </c>
       <c r="N59" t="n">
-        <v>157.6984381699549</v>
+        <v>159.7769404530931</v>
       </c>
       <c r="O59" t="n">
-        <v>157.6984381699549</v>
+        <v>159.7769404530931</v>
       </c>
     </row>
     <row r="60">
@@ -2178,10 +2182,10 @@
         <v>3</v>
       </c>
       <c r="N60" t="n">
-        <v>157.6984381699549</v>
+        <v>159.7769404530931</v>
       </c>
       <c r="O60" t="n">
-        <v>191.8183746150233</v>
+        <v>189.3220804215764</v>
       </c>
     </row>
     <row r="61">
@@ -2210,7 +2214,7 @@
         <v>161.52</v>
       </c>
       <c r="O61" t="n">
-        <v>176.3183746150233</v>
+        <v>166.7520804215764</v>
       </c>
     </row>
     <row r="62">
@@ -2233,13 +2237,13 @@
         <v>7</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
-        <v>163.6984381699549</v>
+        <v>161.7034926440726</v>
       </c>
       <c r="O62" t="n">
-        <v>173.2985953783221</v>
+        <v>161.7034926440726</v>
       </c>
     </row>
     <row r="63">
@@ -2262,13 +2266,13 @@
         <v>7</v>
       </c>
       <c r="M63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N63" t="n">
-        <v>173.2985953783221</v>
+        <v>161.7034926440726</v>
       </c>
       <c r="O63" t="n">
-        <v>173.2985953783221</v>
+        <v>165.7769404530931</v>
       </c>
     </row>
     <row r="64">
@@ -2291,13 +2295,13 @@
         <v>7</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>173.2985953783221</v>
+        <v>165.7769404530931</v>
       </c>
       <c r="O64" t="n">
-        <v>215.2920894528679</v>
+        <v>175.3770976614603</v>
       </c>
     </row>
     <row r="65">
@@ -2323,10 +2327,10 @@
         <v>2</v>
       </c>
       <c r="N65" t="n">
-        <v>176.3183746150233</v>
+        <v>166.7520804215764</v>
       </c>
       <c r="O65" t="n">
-        <v>176.3183746150233</v>
+        <v>166.7520804215764</v>
       </c>
     </row>
     <row r="66">
@@ -2352,7 +2356,7 @@
         <v>3</v>
       </c>
       <c r="N66" t="n">
-        <v>176.3183746150233</v>
+        <v>166.7520804215764</v>
       </c>
       <c r="O66" t="n">
         <v>201.52</v>
@@ -2381,10 +2385,10 @@
         <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>182.3183746150233</v>
+        <v>172.7520804215764</v>
       </c>
       <c r="O67" t="n">
-        <v>185.8183746150233</v>
+        <v>183.3220804215764</v>
       </c>
     </row>
     <row r="68">
@@ -2404,16 +2408,16 @@
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="n">
-        <v>183.52</v>
+        <v>175.3770976614603</v>
       </c>
       <c r="O68" t="n">
-        <v>183.52</v>
+        <v>175.3770976614603</v>
       </c>
     </row>
     <row r="69">
@@ -2433,16 +2437,16 @@
         <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="n">
-        <v>183.52</v>
+        <v>175.3770976614603</v>
       </c>
       <c r="O69" t="n">
-        <v>183.52</v>
+        <v>200.3941574520776</v>
       </c>
     </row>
     <row r="70">
@@ -2462,16 +2466,16 @@
         <v>1</v>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70" t="n">
-        <v>183.52</v>
+        <v>183.3220804215764</v>
       </c>
       <c r="O70" t="n">
-        <v>223.52</v>
+        <v>183.3220804215764</v>
       </c>
     </row>
     <row r="71">
@@ -2494,13 +2498,13 @@
         <v>5</v>
       </c>
       <c r="M71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N71" t="n">
-        <v>185.8183746150233</v>
+        <v>183.3220804215764</v>
       </c>
       <c r="O71" t="n">
-        <v>185.8183746150233</v>
+        <v>217.4669846649108</v>
       </c>
     </row>
     <row r="72">
@@ -2520,16 +2524,16 @@
         <v>1</v>
       </c>
       <c r="L72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N72" t="n">
-        <v>185.8183746150233</v>
+        <v>183.52</v>
       </c>
       <c r="O72" t="n">
-        <v>211.5877474403654</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="73">
@@ -2549,16 +2553,16 @@
         <v>1</v>
       </c>
       <c r="L73" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N73" t="n">
-        <v>191.8183746150233</v>
+        <v>183.52</v>
       </c>
       <c r="O73" t="n">
-        <v>209.2920894528679</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="74">
@@ -2578,16 +2582,16 @@
         <v>1</v>
       </c>
       <c r="L74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="n">
-        <v>201.52</v>
+        <v>183.52</v>
       </c>
       <c r="O74" t="n">
-        <v>205.5877474403654</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="75">
@@ -2607,16 +2611,16 @@
         <v>1</v>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N75" t="n">
-        <v>205.5877474403654</v>
+        <v>183.52</v>
       </c>
       <c r="O75" t="n">
-        <v>205.5877474403654</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="76">
@@ -2636,16 +2640,16 @@
         <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N76" t="n">
-        <v>205.5877474403654</v>
+        <v>183.52</v>
       </c>
       <c r="O76" t="n">
-        <v>241.52</v>
+        <v>194.04</v>
       </c>
     </row>
     <row r="77">
@@ -2668,13 +2672,13 @@
         <v>6</v>
       </c>
       <c r="M77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>209.2920894528679</v>
+        <v>189.3220804215764</v>
       </c>
       <c r="O77" t="n">
-        <v>209.2920894528679</v>
+        <v>194.3941574520776</v>
       </c>
     </row>
     <row r="78">
@@ -2694,16 +2698,16 @@
         <v>1</v>
       </c>
       <c r="L78" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N78" t="n">
-        <v>209.2920894528679</v>
+        <v>194.04</v>
       </c>
       <c r="O78" t="n">
-        <v>228.1577474403654</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="79">
@@ -2723,16 +2727,16 @@
         <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N79" t="n">
-        <v>211.5877474403654</v>
+        <v>194.3941574520776</v>
       </c>
       <c r="O79" t="n">
-        <v>222.1577474403654</v>
+        <v>194.3941574520776</v>
       </c>
     </row>
     <row r="80">
@@ -2752,16 +2756,16 @@
         <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N80" t="n">
-        <v>215.2920894528679</v>
+        <v>194.3941574520776</v>
       </c>
       <c r="O80" t="n">
-        <v>225.4708274369736</v>
+        <v>234.0369846649108</v>
       </c>
     </row>
     <row r="81">
@@ -2781,16 +2785,16 @@
         <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N81" t="n">
-        <v>222.1577474403654</v>
+        <v>200.3941574520776</v>
       </c>
       <c r="O81" t="n">
-        <v>222.1577474403654</v>
+        <v>210.5728954361833</v>
       </c>
     </row>
     <row r="82">
@@ -2810,16 +2814,16 @@
         <v>1</v>
       </c>
       <c r="L82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>222.1577474403654</v>
+        <v>201.52</v>
       </c>
       <c r="O82" t="n">
-        <v>261.3397337220845</v>
+        <v>211.4669846649108</v>
       </c>
     </row>
     <row r="83">
@@ -2839,16 +2843,16 @@
         <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="n">
-        <v>223.52</v>
+        <v>210.5728954361833</v>
       </c>
       <c r="O83" t="n">
-        <v>223.52</v>
+        <v>210.5728954361833</v>
       </c>
     </row>
     <row r="84">
@@ -2868,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="n">
-        <v>223.52</v>
+        <v>210.5728954361833</v>
       </c>
       <c r="O84" t="n">
-        <v>223.52</v>
+        <v>261.9806970945549</v>
       </c>
     </row>
     <row r="85">
@@ -2897,16 +2901,16 @@
         <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N85" t="n">
-        <v>223.52</v>
+        <v>211.4669846649108</v>
       </c>
       <c r="O85" t="n">
-        <v>263.52</v>
+        <v>211.4669846649108</v>
       </c>
     </row>
     <row r="86">
@@ -2926,16 +2930,16 @@
         <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N86" t="n">
-        <v>225.4708274369736</v>
+        <v>211.4669846649108</v>
       </c>
       <c r="O86" t="n">
-        <v>225.4708274369736</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="87">
@@ -2955,16 +2959,16 @@
         <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
-        <v>225.4708274369736</v>
+        <v>217.4669846649108</v>
       </c>
       <c r="O87" t="n">
-        <v>243.0717334910059</v>
+        <v>228.0369846649108</v>
       </c>
     </row>
     <row r="88">
@@ -2984,16 +2988,16 @@
         <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N88" t="n">
-        <v>228.1577474403654</v>
+        <v>223.52</v>
       </c>
       <c r="O88" t="n">
-        <v>237.0717334910059</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="89">
@@ -3013,16 +3017,16 @@
         <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N89" t="n">
-        <v>237.0717334910059</v>
+        <v>223.52</v>
       </c>
       <c r="O89" t="n">
-        <v>237.0717334910059</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="90">
@@ -3042,16 +3046,16 @@
         <v>1</v>
       </c>
       <c r="L90" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
-        <v>237.0717334910059</v>
+        <v>223.52</v>
       </c>
       <c r="O90" t="n">
-        <v>277.9097337220845</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="91">
@@ -3071,16 +3075,16 @@
         <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N91" t="n">
-        <v>241.52</v>
+        <v>223.52</v>
       </c>
       <c r="O91" t="n">
-        <v>255.3397337220845</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="92">
@@ -3100,16 +3104,16 @@
         <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>243.0717334910059</v>
+        <v>223.52</v>
       </c>
       <c r="O92" t="n">
-        <v>254.5126266902074</v>
+        <v>234.04</v>
       </c>
     </row>
     <row r="93">
@@ -3129,16 +3133,16 @@
         <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M93" t="n">
         <v>2</v>
       </c>
       <c r="N93" t="n">
-        <v>254.5126266902074</v>
+        <v>228.0369846649108</v>
       </c>
       <c r="O93" t="n">
-        <v>254.5126266902074</v>
+        <v>228.0369846649108</v>
       </c>
     </row>
     <row r="94">
@@ -3158,16 +3162,16 @@
         <v>1</v>
       </c>
       <c r="L94" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
       </c>
       <c r="N94" t="n">
-        <v>254.5126266902074</v>
+        <v>228.0369846649108</v>
       </c>
       <c r="O94" t="n">
-        <v>287.5450833550947</v>
+        <v>251.9898978713572</v>
       </c>
     </row>
     <row r="95">
@@ -3187,16 +3191,16 @@
         <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
-        <v>255.3397337220845</v>
+        <v>234.0369846649108</v>
       </c>
       <c r="O95" t="n">
-        <v>255.3397337220845</v>
+        <v>255.9806970945549</v>
       </c>
     </row>
     <row r="96">
@@ -3216,16 +3220,16 @@
         <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N96" t="n">
-        <v>255.3397337220845</v>
+        <v>234.04</v>
       </c>
       <c r="O96" t="n">
-        <v>281.52</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="97">
@@ -3245,16 +3249,16 @@
         <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
       <c r="N97" t="n">
-        <v>261.3397337220845</v>
+        <v>241.52</v>
       </c>
       <c r="O97" t="n">
-        <v>271.9097337220845</v>
+        <v>245.9898978713572</v>
       </c>
     </row>
     <row r="98">
@@ -3274,16 +3278,16 @@
         <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M98" t="n">
         <v>2</v>
       </c>
       <c r="N98" t="n">
-        <v>263.52</v>
+        <v>245.9898978713572</v>
       </c>
       <c r="O98" t="n">
-        <v>263.52</v>
+        <v>245.9898978713572</v>
       </c>
     </row>
     <row r="99">
@@ -3303,16 +3307,16 @@
         <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="n">
-        <v>263.52</v>
+        <v>245.9898978713572</v>
       </c>
       <c r="O99" t="n">
-        <v>263.52</v>
+        <v>281.52</v>
       </c>
     </row>
     <row r="100">
@@ -3332,16 +3336,16 @@
         <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>263.52</v>
+        <v>251.9898978713572</v>
       </c>
       <c r="O100" t="n">
-        <v>303.52</v>
+        <v>262.5598978713572</v>
       </c>
     </row>
     <row r="101">
@@ -3361,16 +3365,16 @@
         <v>1</v>
       </c>
       <c r="L101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M101" t="n">
         <v>2</v>
       </c>
       <c r="N101" t="n">
-        <v>271.9097337220845</v>
+        <v>255.9806970945549</v>
       </c>
       <c r="O101" t="n">
-        <v>271.9097337220845</v>
+        <v>255.9806970945549</v>
       </c>
     </row>
     <row r="102">
@@ -3390,16 +3394,16 @@
         <v>1</v>
       </c>
       <c r="L102" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="n">
-        <v>271.9097337220845</v>
+        <v>255.9806970945549</v>
       </c>
       <c r="O102" t="n">
-        <v>315.0099305834493</v>
+        <v>268.5598978713572</v>
       </c>
     </row>
     <row r="103">
@@ -3419,16 +3423,16 @@
         <v>1</v>
       </c>
       <c r="L103" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
       <c r="N103" t="n">
-        <v>277.9097337220845</v>
+        <v>261.9806970945549</v>
       </c>
       <c r="O103" t="n">
-        <v>281.5450833550947</v>
+        <v>273.4215902937564</v>
       </c>
     </row>
     <row r="104">
@@ -3448,16 +3452,16 @@
         <v>1</v>
       </c>
       <c r="L104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N104" t="n">
-        <v>281.52</v>
+        <v>262.5598978713572</v>
       </c>
       <c r="O104" t="n">
-        <v>309.0099305834493</v>
+        <v>262.5598978713572</v>
       </c>
     </row>
     <row r="105">
@@ -3477,16 +3481,16 @@
         <v>1</v>
       </c>
       <c r="L105" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N105" t="n">
-        <v>281.5450833550947</v>
+        <v>262.5598978713572</v>
       </c>
       <c r="O105" t="n">
-        <v>281.5450833550947</v>
+        <v>294.0365459879236</v>
       </c>
     </row>
     <row r="106">
@@ -3506,16 +3510,16 @@
         <v>1</v>
       </c>
       <c r="L106" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N106" t="n">
-        <v>281.5450833550947</v>
+        <v>263.52</v>
       </c>
       <c r="O106" t="n">
-        <v>324.5099305834493</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="107">
@@ -3535,16 +3539,16 @@
         <v>1</v>
       </c>
       <c r="L107" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N107" t="n">
-        <v>287.5450833550947</v>
+        <v>263.52</v>
       </c>
       <c r="O107" t="n">
-        <v>298.6126413452447</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="108">
@@ -3564,16 +3568,16 @@
         <v>1</v>
       </c>
       <c r="L108" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N108" t="n">
-        <v>298.6126413452447</v>
+        <v>263.52</v>
       </c>
       <c r="O108" t="n">
-        <v>298.6126413452447</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="109">
@@ -3593,16 +3597,16 @@
         <v>1</v>
       </c>
       <c r="L109" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
         <v>3</v>
       </c>
       <c r="N109" t="n">
-        <v>298.6126413452447</v>
+        <v>263.52</v>
       </c>
       <c r="O109" t="n">
-        <v>337.2793395159588</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="110">
@@ -3622,16 +3626,16 @@
         <v>1</v>
       </c>
       <c r="L110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N110" t="n">
-        <v>303.52</v>
+        <v>263.52</v>
       </c>
       <c r="O110" t="n">
-        <v>303.52</v>
+        <v>274.04</v>
       </c>
     </row>
     <row r="111">
@@ -3651,15 +3655,17 @@
         <v>1</v>
       </c>
       <c r="L111" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N111" t="n">
-        <v>303.52</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
+        <v>268.5598978713572</v>
+      </c>
+      <c r="O111" t="n">
+        <v>273.3712613003709</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3678,16 +3684,16 @@
         <v>1</v>
       </c>
       <c r="L112" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M112" t="n">
         <v>2</v>
       </c>
       <c r="N112" t="n">
-        <v>309.0099305834493</v>
+        <v>273.3712613003709</v>
       </c>
       <c r="O112" t="n">
-        <v>309.0099305834493</v>
+        <v>273.3712613003709</v>
       </c>
     </row>
     <row r="113">
@@ -3707,16 +3713,16 @@
         <v>1</v>
       </c>
       <c r="L113" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="n">
-        <v>309.0099305834493</v>
+        <v>273.3712613003709</v>
       </c>
       <c r="O113" t="n">
-        <v>321.52</v>
+        <v>310.6065459879236</v>
       </c>
     </row>
     <row r="114">
@@ -3736,16 +3742,16 @@
         <v>1</v>
       </c>
       <c r="L114" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N114" t="n">
-        <v>315.0099305834493</v>
+        <v>273.4215902937564</v>
       </c>
       <c r="O114" t="n">
-        <v>318.5099305834493</v>
+        <v>273.4215902937564</v>
       </c>
     </row>
     <row r="115">
@@ -3765,16 +3771,16 @@
         <v>1</v>
       </c>
       <c r="L115" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N115" t="n">
-        <v>318.5099305834493</v>
+        <v>273.4215902937564</v>
       </c>
       <c r="O115" t="n">
-        <v>318.5099305834493</v>
+        <v>279.3712613003709</v>
       </c>
     </row>
     <row r="116">
@@ -3794,16 +3800,16 @@
         <v>1</v>
       </c>
       <c r="L116" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N116" t="n">
-        <v>318.5099305834493</v>
+        <v>274.04</v>
       </c>
       <c r="O116" t="n">
-        <v>339.5452930397972</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="117">
@@ -3823,16 +3829,16 @@
         <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
       <c r="N117" t="n">
-        <v>321.52</v>
+        <v>279.3712613003709</v>
       </c>
       <c r="O117" t="n">
-        <v>333.5452930397972</v>
+        <v>290.4388192905208</v>
       </c>
     </row>
     <row r="118">
@@ -3852,16 +3858,16 @@
         <v>1</v>
       </c>
       <c r="L118" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
       <c r="N118" t="n">
-        <v>324.5099305834493</v>
+        <v>281.52</v>
       </c>
       <c r="O118" t="n">
-        <v>331.2793395159588</v>
+        <v>288.0365459879236</v>
       </c>
     </row>
     <row r="119">
@@ -3881,16 +3887,16 @@
         <v>1</v>
       </c>
       <c r="L119" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M119" t="n">
         <v>2</v>
       </c>
       <c r="N119" t="n">
-        <v>331.2793395159588</v>
+        <v>288.0365459879236</v>
       </c>
       <c r="O119" t="n">
-        <v>331.2793395159588</v>
+        <v>288.0365459879236</v>
       </c>
     </row>
     <row r="120">
@@ -3910,16 +3916,16 @@
         <v>1</v>
       </c>
       <c r="L120" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M120" t="n">
         <v>3</v>
       </c>
       <c r="N120" t="n">
-        <v>331.2793395159588</v>
+        <v>288.0365459879236</v>
       </c>
       <c r="O120" t="n">
-        <v>356.1152930397972</v>
+        <v>321.52</v>
       </c>
     </row>
     <row r="121">
@@ -3939,16 +3945,16 @@
         <v>1</v>
       </c>
       <c r="L121" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M121" t="n">
         <v>2</v>
       </c>
       <c r="N121" t="n">
-        <v>333.5452930397972</v>
+        <v>290.4388192905208</v>
       </c>
       <c r="O121" t="n">
-        <v>333.5452930397972</v>
+        <v>290.4388192905208</v>
       </c>
     </row>
     <row r="122">
@@ -3968,15 +3974,17 @@
         <v>1</v>
       </c>
       <c r="L122" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M122" t="n">
         <v>3</v>
       </c>
       <c r="N122" t="n">
-        <v>333.5452930397972</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
+        <v>290.4388192905208</v>
+      </c>
+      <c r="O122" t="n">
+        <v>320.3615903556284</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3995,16 +4003,16 @@
         <v>1</v>
       </c>
       <c r="L123" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
       <c r="N123" t="n">
-        <v>337.2793395159588</v>
+        <v>294.0365459879236</v>
       </c>
       <c r="O123" t="n">
-        <v>345.5020616360824</v>
+        <v>304.6065459879236</v>
       </c>
     </row>
     <row r="124">
@@ -4024,16 +4032,16 @@
         <v>1</v>
       </c>
       <c r="L124" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N124" t="n">
-        <v>339.5452930397972</v>
+        <v>303.52</v>
       </c>
       <c r="O124" t="n">
-        <v>350.1152930397972</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="125">
@@ -4053,16 +4061,16 @@
         <v>1</v>
       </c>
       <c r="L125" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N125" t="n">
-        <v>345.5020616360824</v>
+        <v>303.52</v>
       </c>
       <c r="O125" t="n">
-        <v>345.5020616360824</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="126">
@@ -4082,16 +4090,16 @@
         <v>1</v>
       </c>
       <c r="L126" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M126" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N126" t="n">
-        <v>345.5020616360824</v>
+        <v>303.52</v>
       </c>
       <c r="O126" t="n">
-        <v>382.8271939320369</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="127">
@@ -4111,16 +4119,16 @@
         <v>1</v>
       </c>
       <c r="L127" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N127" t="n">
-        <v>350.1152930397972</v>
+        <v>303.52</v>
       </c>
       <c r="O127" t="n">
-        <v>350.1152930397972</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="128">
@@ -4140,15 +4148,17 @@
         <v>1</v>
       </c>
       <c r="L128" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N128" t="n">
-        <v>350.1152930397972</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
+        <v>303.52</v>
+      </c>
+      <c r="O128" t="n">
+        <v>314.04</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4167,16 +4177,16 @@
         <v>1</v>
       </c>
       <c r="L129" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N129" t="n">
-        <v>356.1152930397972</v>
+        <v>304.6065459879236</v>
       </c>
       <c r="O129" t="n">
-        <v>376.8271939320369</v>
+        <v>304.6065459879236</v>
       </c>
     </row>
     <row r="130">
@@ -4196,16 +4206,16 @@
         <v>1</v>
       </c>
       <c r="L130" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N130" t="n">
-        <v>376.8271939320369</v>
+        <v>304.6065459879236</v>
       </c>
       <c r="O130" t="n">
-        <v>376.8271939320369</v>
+        <v>333.0819307193585</v>
       </c>
     </row>
     <row r="131">
@@ -4228,12 +4238,14 @@
         <v>6</v>
       </c>
       <c r="M131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N131" t="n">
-        <v>376.8271939320369</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
+        <v>310.6065459879236</v>
+      </c>
+      <c r="O131" t="n">
+        <v>314.3615903556284</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4252,16 +4264,16 @@
         <v>1</v>
       </c>
       <c r="L132" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="M132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N132" t="n">
-        <v>382.8271939320369</v>
+        <v>314.04</v>
       </c>
       <c r="O132" t="n">
-        <v>392.9772823495625</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="133">
@@ -4281,15 +4293,4353 @@
         <v>1</v>
       </c>
       <c r="L133" t="n">
+        <v>6</v>
+      </c>
+      <c r="M133" t="n">
+        <v>2</v>
+      </c>
+      <c r="N133" t="n">
+        <v>314.3615903556284</v>
+      </c>
+      <c r="O133" t="n">
+        <v>314.3615903556284</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr"/>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="n">
+        <v>6</v>
+      </c>
+      <c r="M134" t="n">
+        <v>3</v>
+      </c>
+      <c r="N134" t="n">
+        <v>314.3615903556284</v>
+      </c>
+      <c r="O134" t="n">
+        <v>349.6519307193585</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
         <v>7</v>
       </c>
-      <c r="M133" t="n">
-        <v>2</v>
-      </c>
-      <c r="N133" t="n">
-        <v>392.9772823495625</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>320.3615903556284</v>
+      </c>
+      <c r="O135" t="n">
+        <v>328.584312475752</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr"/>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>4</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>321.52</v>
+      </c>
+      <c r="O136" t="n">
+        <v>327.0819307193585</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr"/>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>4</v>
+      </c>
+      <c r="M137" t="n">
+        <v>2</v>
+      </c>
+      <c r="N137" t="n">
+        <v>327.0819307193585</v>
+      </c>
+      <c r="O137" t="n">
+        <v>327.0819307193585</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr"/>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>4</v>
+      </c>
+      <c r="M138" t="n">
+        <v>3</v>
+      </c>
+      <c r="N138" t="n">
+        <v>327.0819307193585</v>
+      </c>
+      <c r="O138" t="n">
+        <v>361.52</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr"/>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>7</v>
+      </c>
+      <c r="M139" t="n">
+        <v>2</v>
+      </c>
+      <c r="N139" t="n">
+        <v>328.584312475752</v>
+      </c>
+      <c r="O139" t="n">
+        <v>328.584312475752</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr"/>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>7</v>
+      </c>
+      <c r="M140" t="n">
+        <v>3</v>
+      </c>
+      <c r="N140" t="n">
+        <v>328.584312475752</v>
+      </c>
+      <c r="O140" t="n">
+        <v>375.2490376247814</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr"/>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>5</v>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="n">
+        <v>333.0819307193585</v>
+      </c>
+      <c r="O141" t="n">
+        <v>343.6519307193585</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr"/>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2</v>
+      </c>
+      <c r="N142" t="n">
+        <v>343.52</v>
+      </c>
+      <c r="O142" t="n">
+        <v>343.52</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr"/>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>2</v>
+      </c>
+      <c r="M143" t="n">
+        <v>3</v>
+      </c>
+      <c r="N143" t="n">
+        <v>343.52</v>
+      </c>
+      <c r="O143" t="n">
+        <v>343.52</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr"/>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="n">
+        <v>343.52</v>
+      </c>
+      <c r="O144" t="n">
+        <v>383.52</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr"/>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>3</v>
+      </c>
+      <c r="N145" t="n">
+        <v>343.52</v>
+      </c>
+      <c r="O145" t="n">
+        <v>343.52</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr"/>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="n">
+        <v>343.52</v>
+      </c>
+      <c r="O146" t="n">
+        <v>354.04</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr"/>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>5</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2</v>
+      </c>
+      <c r="N147" t="n">
+        <v>343.6519307193585</v>
+      </c>
+      <c r="O147" t="n">
+        <v>343.6519307193585</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr"/>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>5</v>
+      </c>
+      <c r="M148" t="n">
+        <v>3</v>
+      </c>
+      <c r="N148" t="n">
+        <v>343.6519307193585</v>
+      </c>
+      <c r="O148" t="n">
+        <v>373.8493818919974</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr"/>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>6</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>349.6519307193585</v>
+      </c>
+      <c r="O149" t="n">
+        <v>369.2490376247814</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr"/>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2</v>
+      </c>
+      <c r="N150" t="n">
+        <v>354.04</v>
+      </c>
+      <c r="O150" t="n">
+        <v>383.52</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr"/>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>4</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>361.52</v>
+      </c>
+      <c r="O151" t="n">
+        <v>367.8493818919974</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr"/>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>4</v>
+      </c>
+      <c r="M152" t="n">
+        <v>2</v>
+      </c>
+      <c r="N152" t="n">
+        <v>367.8493818919974</v>
+      </c>
+      <c r="O152" t="n">
+        <v>367.8493818919974</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr"/>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>4</v>
+      </c>
+      <c r="M153" t="n">
+        <v>3</v>
+      </c>
+      <c r="N153" t="n">
+        <v>367.8493818919974</v>
+      </c>
+      <c r="O153" t="n">
+        <v>401.52</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr"/>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>6</v>
+      </c>
+      <c r="M154" t="n">
+        <v>2</v>
+      </c>
+      <c r="N154" t="n">
+        <v>369.2490376247814</v>
+      </c>
+      <c r="O154" t="n">
+        <v>369.2490376247814</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr"/>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>6</v>
+      </c>
+      <c r="M155" t="n">
+        <v>3</v>
+      </c>
+      <c r="N155" t="n">
+        <v>369.2490376247814</v>
+      </c>
+      <c r="O155" t="n">
+        <v>390.4193818919974</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr"/>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>5</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>373.8493818919974</v>
+      </c>
+      <c r="O156" t="n">
+        <v>384.4193818919974</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr"/>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>7</v>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="n">
+        <v>375.2490376247814</v>
+      </c>
+      <c r="O157" t="n">
+        <v>385.3991260423069</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr"/>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>2</v>
+      </c>
+      <c r="M158" t="n">
+        <v>2</v>
+      </c>
+      <c r="N158" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="O158" t="n">
+        <v>383.52</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr"/>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>2</v>
+      </c>
+      <c r="M159" t="n">
+        <v>3</v>
+      </c>
+      <c r="N159" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="O159" t="n">
+        <v>383.52</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr"/>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="O160" t="n">
+        <v>423.52</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr"/>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>3</v>
+      </c>
+      <c r="N161" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="O161" t="n">
+        <v>383.52</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr"/>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="O162" t="n">
+        <v>394.04</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr"/>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>5</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2</v>
+      </c>
+      <c r="N163" t="n">
+        <v>384.4193818919974</v>
+      </c>
+      <c r="O163" t="n">
+        <v>384.4193818919974</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr"/>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>5</v>
+      </c>
+      <c r="M164" t="n">
+        <v>3</v>
+      </c>
+      <c r="N164" t="n">
+        <v>384.4193818919974</v>
+      </c>
+      <c r="O164" t="n">
+        <v>430.4788017404347</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>7</v>
+      </c>
+      <c r="M165" t="n">
+        <v>2</v>
+      </c>
+      <c r="N165" t="n">
+        <v>385.3991260423069</v>
+      </c>
+      <c r="O165" t="n">
+        <v>385.3991260423069</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>7</v>
+      </c>
+      <c r="M166" t="n">
+        <v>3</v>
+      </c>
+      <c r="N166" t="n">
+        <v>385.3991260423069</v>
+      </c>
+      <c r="O166" t="n">
+        <v>402.124638324402</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>6</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>390.4193818919974</v>
+      </c>
+      <c r="O167" t="n">
+        <v>396.124638324402</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>2</v>
+      </c>
+      <c r="N168" t="n">
+        <v>394.04</v>
+      </c>
+      <c r="O168" t="n">
+        <v>423.52</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>6</v>
+      </c>
+      <c r="M169" t="n">
+        <v>2</v>
+      </c>
+      <c r="N169" t="n">
+        <v>396.124638324402</v>
+      </c>
+      <c r="O169" t="n">
+        <v>396.124638324402</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>6</v>
+      </c>
+      <c r="M170" t="n">
+        <v>3</v>
+      </c>
+      <c r="N170" t="n">
+        <v>396.124638324402</v>
+      </c>
+      <c r="O170" t="n">
+        <v>447.0488017404347</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>4</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>401.52</v>
+      </c>
+      <c r="O171" t="n">
+        <v>424.4788017404347</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>7</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>402.124638324402</v>
+      </c>
+      <c r="O172" t="n">
+        <v>411.1732811161043</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>7</v>
+      </c>
+      <c r="M173" t="n">
+        <v>2</v>
+      </c>
+      <c r="N173" t="n">
+        <v>411.1732811161043</v>
+      </c>
+      <c r="O173" t="n">
+        <v>411.1732811161043</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="n">
+        <v>7</v>
+      </c>
+      <c r="M174" t="n">
+        <v>3</v>
+      </c>
+      <c r="N174" t="n">
+        <v>411.1732811161043</v>
+      </c>
+      <c r="O174" t="n">
+        <v>462.7779339641231</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>2</v>
+      </c>
+      <c r="M175" t="n">
+        <v>2</v>
+      </c>
+      <c r="N175" t="n">
+        <v>423.52</v>
+      </c>
+      <c r="O175" t="n">
+        <v>423.52</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>2</v>
+      </c>
+      <c r="M176" t="n">
+        <v>3</v>
+      </c>
+      <c r="N176" t="n">
+        <v>423.52</v>
+      </c>
+      <c r="O176" t="n">
+        <v>423.52</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>2</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>423.52</v>
+      </c>
+      <c r="O177" t="n">
+        <v>463.52</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr"/>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr"/>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="n">
+        <v>3</v>
+      </c>
+      <c r="N178" t="n">
+        <v>423.52</v>
+      </c>
+      <c r="O178" t="n">
+        <v>423.52</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr"/>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr"/>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="n">
+        <v>423.52</v>
+      </c>
+      <c r="O179" t="n">
+        <v>434.04</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr"/>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr"/>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>4</v>
+      </c>
+      <c r="M180" t="n">
+        <v>2</v>
+      </c>
+      <c r="N180" t="n">
+        <v>424.4788017404347</v>
+      </c>
+      <c r="O180" t="n">
+        <v>424.4788017404347</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr"/>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>4</v>
+      </c>
+      <c r="M181" t="n">
+        <v>3</v>
+      </c>
+      <c r="N181" t="n">
+        <v>424.4788017404347</v>
+      </c>
+      <c r="O181" t="n">
+        <v>441.52</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr"/>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr"/>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>5</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="n">
+        <v>430.4788017404347</v>
+      </c>
+      <c r="O182" t="n">
+        <v>441.0488017404347</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>2</v>
+      </c>
+      <c r="N183" t="n">
+        <v>434.04</v>
+      </c>
+      <c r="O183" t="n">
+        <v>463.52</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>5</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2</v>
+      </c>
+      <c r="N184" t="n">
+        <v>441.0488017404347</v>
+      </c>
+      <c r="O184" t="n">
+        <v>441.0488017404347</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr"/>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="n">
+        <v>5</v>
+      </c>
+      <c r="M185" t="n">
+        <v>3</v>
+      </c>
+      <c r="N185" t="n">
+        <v>441.0488017404347</v>
+      </c>
+      <c r="O185" t="n">
+        <v>460.2788475158603</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr"/>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr"/>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>4</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="n">
+        <v>441.52</v>
+      </c>
+      <c r="O186" t="n">
+        <v>454.2788475158603</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr"/>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>6</v>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="n">
+        <v>447.0488017404347</v>
+      </c>
+      <c r="O187" t="n">
+        <v>456.7779339641231</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr"/>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="n">
+        <v>4</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2</v>
+      </c>
+      <c r="N188" t="n">
+        <v>454.2788475158603</v>
+      </c>
+      <c r="O188" t="n">
+        <v>454.2788475158603</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr"/>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="n">
+        <v>4</v>
+      </c>
+      <c r="M189" t="n">
+        <v>3</v>
+      </c>
+      <c r="N189" t="n">
+        <v>454.2788475158603</v>
+      </c>
+      <c r="O189" t="n">
+        <v>521.52</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="n">
+        <v>6</v>
+      </c>
+      <c r="M190" t="n">
+        <v>2</v>
+      </c>
+      <c r="N190" t="n">
+        <v>456.7779339641231</v>
+      </c>
+      <c r="O190" t="n">
+        <v>456.7779339641231</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr"/>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>6</v>
+      </c>
+      <c r="M191" t="n">
+        <v>3</v>
+      </c>
+      <c r="N191" t="n">
+        <v>456.7779339641231</v>
+      </c>
+      <c r="O191" t="n">
+        <v>476.8488475158603</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>5</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="n">
+        <v>460.2788475158603</v>
+      </c>
+      <c r="O192" t="n">
+        <v>470.8488475158603</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr"/>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>7</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="n">
+        <v>462.7779339641231</v>
+      </c>
+      <c r="O193" t="n">
+        <v>471.8747151123295</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2</v>
+      </c>
+      <c r="M194" t="n">
+        <v>2</v>
+      </c>
+      <c r="N194" t="n">
+        <v>463.52</v>
+      </c>
+      <c r="O194" t="n">
+        <v>463.52</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr"/>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>2</v>
+      </c>
+      <c r="M195" t="n">
+        <v>3</v>
+      </c>
+      <c r="N195" t="n">
+        <v>463.52</v>
+      </c>
+      <c r="O195" t="n">
+        <v>463.52</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr"/>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>2</v>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="n">
+        <v>463.52</v>
+      </c>
+      <c r="O196" t="n">
+        <v>503.52</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr"/>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>3</v>
+      </c>
+      <c r="N197" t="n">
+        <v>463.52</v>
+      </c>
+      <c r="O197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="n">
+        <v>5</v>
+      </c>
+      <c r="M198" t="n">
+        <v>2</v>
+      </c>
+      <c r="N198" t="n">
+        <v>470.8488475158603</v>
+      </c>
+      <c r="O198" t="n">
+        <v>470.8488475158603</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr"/>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="n">
+        <v>5</v>
+      </c>
+      <c r="M199" t="n">
+        <v>3</v>
+      </c>
+      <c r="N199" t="n">
+        <v>470.8488475158603</v>
+      </c>
+      <c r="O199" t="n">
+        <v>541.9741255558991</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="n">
+        <v>7</v>
+      </c>
+      <c r="M200" t="n">
+        <v>2</v>
+      </c>
+      <c r="N200" t="n">
+        <v>471.8747151123295</v>
+      </c>
+      <c r="O200" t="n">
+        <v>471.8747151123295</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr"/>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="n">
+        <v>7</v>
+      </c>
+      <c r="M201" t="n">
+        <v>3</v>
+      </c>
+      <c r="N201" t="n">
+        <v>471.8747151123295</v>
+      </c>
+      <c r="O201" t="n">
+        <v>490.6526031715059</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>6</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="n">
+        <v>476.8488475158603</v>
+      </c>
+      <c r="O202" t="n">
+        <v>484.6526031715059</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>3</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>481.52</v>
+      </c>
+      <c r="O203" t="n">
+        <v>601.52</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="n">
+        <v>6</v>
+      </c>
+      <c r="M204" t="n">
+        <v>2</v>
+      </c>
+      <c r="N204" t="n">
+        <v>484.6526031715059</v>
+      </c>
+      <c r="O204" t="n">
+        <v>484.6526031715059</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr"/>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>6</v>
+      </c>
+      <c r="M205" t="n">
+        <v>3</v>
+      </c>
+      <c r="N205" t="n">
+        <v>484.6526031715059</v>
+      </c>
+      <c r="O205" t="n">
+        <v>558.5441255558992</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr"/>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="n">
+        <v>7</v>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="n">
+        <v>490.6526031715059</v>
+      </c>
+      <c r="O206" t="n">
+        <v>500.2632016734443</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr"/>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="n">
+        <v>7</v>
+      </c>
+      <c r="M207" t="n">
+        <v>2</v>
+      </c>
+      <c r="N207" t="n">
+        <v>500.2632016734443</v>
+      </c>
+      <c r="O207" t="n">
+        <v>500.2632016734443</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr"/>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="n">
+        <v>7</v>
+      </c>
+      <c r="M208" t="n">
+        <v>3</v>
+      </c>
+      <c r="N208" t="n">
+        <v>500.2632016734443</v>
+      </c>
+      <c r="O208" t="n">
+        <v>586.5542341969893</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr"/>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="n">
+        <v>2</v>
+      </c>
+      <c r="M209" t="n">
+        <v>2</v>
+      </c>
+      <c r="N209" t="n">
+        <v>503.52</v>
+      </c>
+      <c r="O209" t="n">
+        <v>503.52</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr"/>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="n">
+        <v>2</v>
+      </c>
+      <c r="M210" t="n">
+        <v>3</v>
+      </c>
+      <c r="N210" t="n">
+        <v>503.52</v>
+      </c>
+      <c r="O210" t="n">
+        <v>503.52</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr"/>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="n">
+        <v>2</v>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="n">
+        <v>503.52</v>
+      </c>
+      <c r="O211" t="n">
+        <v>543.52</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr"/>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>4</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>521.52</v>
+      </c>
+      <c r="O212" t="n">
+        <v>535.9741255558991</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr"/>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="n">
+        <v>4</v>
+      </c>
+      <c r="M213" t="n">
+        <v>2</v>
+      </c>
+      <c r="N213" t="n">
+        <v>535.9741255558991</v>
+      </c>
+      <c r="O213" t="n">
+        <v>535.9741255558991</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr"/>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="n">
+        <v>4</v>
+      </c>
+      <c r="M214" t="n">
+        <v>3</v>
+      </c>
+      <c r="N214" t="n">
+        <v>535.9741255558991</v>
+      </c>
+      <c r="O214" t="n">
+        <v>561.52</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr"/>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="n">
+        <v>5</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="n">
+        <v>541.9741255558991</v>
+      </c>
+      <c r="O215" t="n">
+        <v>552.5441255558992</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr"/>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2</v>
+      </c>
+      <c r="M216" t="n">
+        <v>2</v>
+      </c>
+      <c r="N216" t="n">
+        <v>543.52</v>
+      </c>
+      <c r="O216" t="n">
+        <v>543.52</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="n">
+        <v>2</v>
+      </c>
+      <c r="M217" t="n">
+        <v>3</v>
+      </c>
+      <c r="N217" t="n">
+        <v>543.52</v>
+      </c>
+      <c r="O217" t="n">
+        <v>543.52</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr"/>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="n">
+        <v>2</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="n">
+        <v>543.52</v>
+      </c>
+      <c r="O218" t="n">
+        <v>583.52</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr"/>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>5</v>
+      </c>
+      <c r="M219" t="n">
+        <v>2</v>
+      </c>
+      <c r="N219" t="n">
+        <v>552.5441255558992</v>
+      </c>
+      <c r="O219" t="n">
+        <v>552.5441255558992</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr"/>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="n">
+        <v>5</v>
+      </c>
+      <c r="M220" t="n">
+        <v>3</v>
+      </c>
+      <c r="N220" t="n">
+        <v>552.5441255558992</v>
+      </c>
+      <c r="O220" t="n">
+        <v>579.2332489126389</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="n">
+        <v>6</v>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="n">
+        <v>558.5441255558992</v>
+      </c>
+      <c r="O221" t="n">
+        <v>580.5542341969893</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr"/>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>4</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="n">
+        <v>561.52</v>
+      </c>
+      <c r="O222" t="n">
+        <v>573.2332489126389</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr"/>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>4</v>
+      </c>
+      <c r="M223" t="n">
+        <v>2</v>
+      </c>
+      <c r="N223" t="n">
+        <v>573.2332489126389</v>
+      </c>
+      <c r="O223" t="n">
+        <v>573.2332489126389</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr"/>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="n">
+        <v>4</v>
+      </c>
+      <c r="M224" t="n">
+        <v>3</v>
+      </c>
+      <c r="N224" t="n">
+        <v>573.2332489126389</v>
+      </c>
+      <c r="O224" t="n">
+        <v>601.52</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr"/>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>5</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>579.2332489126389</v>
+      </c>
+      <c r="O225" t="n">
+        <v>582.7332489126389</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr"/>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>6</v>
+      </c>
+      <c r="M226" t="n">
+        <v>2</v>
+      </c>
+      <c r="N226" t="n">
+        <v>580.5542341969893</v>
+      </c>
+      <c r="O226" t="n">
+        <v>580.5542341969893</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr"/>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="n">
+        <v>6</v>
+      </c>
+      <c r="M227" t="n">
+        <v>3</v>
+      </c>
+      <c r="N227" t="n">
+        <v>580.5542341969893</v>
+      </c>
+      <c r="O227" t="n">
+        <v>588.7332489126389</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr"/>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>5</v>
+      </c>
+      <c r="M228" t="n">
+        <v>2</v>
+      </c>
+      <c r="N228" t="n">
+        <v>582.7332489126389</v>
+      </c>
+      <c r="O228" t="n">
+        <v>582.7332489126389</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
+        <v>5</v>
+      </c>
+      <c r="M229" t="n">
+        <v>3</v>
+      </c>
+      <c r="N229" t="n">
+        <v>582.7332489126389</v>
+      </c>
+      <c r="O229" t="n">
+        <v>612.2010725460924</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr"/>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="n">
+        <v>2</v>
+      </c>
+      <c r="M230" t="n">
+        <v>2</v>
+      </c>
+      <c r="N230" t="n">
+        <v>583.52</v>
+      </c>
+      <c r="O230" t="n">
+        <v>583.52</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="n">
+        <v>2</v>
+      </c>
+      <c r="M231" t="n">
+        <v>3</v>
+      </c>
+      <c r="N231" t="n">
+        <v>583.52</v>
+      </c>
+      <c r="O231" t="n">
+        <v>583.52</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr"/>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="n">
+        <v>2</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="n">
+        <v>583.52</v>
+      </c>
+      <c r="O232" t="n">
+        <v>623.52</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr"/>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="n">
+        <v>7</v>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="n">
+        <v>586.5542341969893</v>
+      </c>
+      <c r="O233" t="n">
+        <v>597.2085077039524</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="n">
+        <v>6</v>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="n">
+        <v>588.7332489126389</v>
+      </c>
+      <c r="O234" t="n">
+        <v>596.3236129044536</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="n">
+        <v>6</v>
+      </c>
+      <c r="M235" t="n">
+        <v>2</v>
+      </c>
+      <c r="N235" t="n">
+        <v>596.3236129044536</v>
+      </c>
+      <c r="O235" t="n">
+        <v>596.3236129044536</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
+      <c r="D236" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="n">
+        <v>6</v>
+      </c>
+      <c r="M236" t="n">
+        <v>3</v>
+      </c>
+      <c r="N236" t="n">
+        <v>596.3236129044536</v>
+      </c>
+      <c r="O236" t="n">
+        <v>628.7710725460925</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr"/>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr"/>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>7</v>
+      </c>
+      <c r="M237" t="n">
+        <v>2</v>
+      </c>
+      <c r="N237" t="n">
+        <v>597.2085077039524</v>
+      </c>
+      <c r="O237" t="n">
+        <v>597.2085077039524</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr"/>
+      <c r="C238" t="inlineStr"/>
+      <c r="D238" t="inlineStr"/>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="n">
+        <v>7</v>
+      </c>
+      <c r="M238" t="n">
+        <v>3</v>
+      </c>
+      <c r="N238" t="n">
+        <v>597.2085077039524</v>
+      </c>
+      <c r="O238" t="n">
+        <v>602.3236129044536</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr"/>
+      <c r="D239" t="inlineStr"/>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>3</v>
+      </c>
+      <c r="M239" t="n">
+        <v>2</v>
+      </c>
+      <c r="N239" t="n">
+        <v>601.52</v>
+      </c>
+      <c r="O239" t="n">
+        <v>601.52</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr"/>
+      <c r="C240" t="inlineStr"/>
+      <c r="D240" t="inlineStr"/>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="n">
+        <v>3</v>
+      </c>
+      <c r="M240" t="n">
+        <v>3</v>
+      </c>
+      <c r="N240" t="n">
+        <v>601.52</v>
+      </c>
+      <c r="O240" t="n">
+        <v>641.52</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr"/>
+      <c r="C241" t="inlineStr"/>
+      <c r="D241" t="inlineStr"/>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="n">
+        <v>4</v>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="n">
+        <v>601.52</v>
+      </c>
+      <c r="O241" t="n">
+        <v>606.2010725460924</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr"/>
+      <c r="C242" t="inlineStr"/>
+      <c r="D242" t="inlineStr"/>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="n">
+        <v>7</v>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="n">
+        <v>602.3236129044536</v>
+      </c>
+      <c r="O242" t="n">
+        <v>612.2846506296006</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
+      <c r="D243" t="inlineStr"/>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="n">
+        <v>4</v>
+      </c>
+      <c r="M243" t="n">
+        <v>2</v>
+      </c>
+      <c r="N243" t="n">
+        <v>606.2010725460924</v>
+      </c>
+      <c r="O243" t="n">
+        <v>606.2010725460924</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr"/>
+      <c r="C244" t="inlineStr"/>
+      <c r="D244" t="inlineStr"/>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="n">
+        <v>4</v>
+      </c>
+      <c r="M244" t="n">
+        <v>3</v>
+      </c>
+      <c r="N244" t="n">
+        <v>606.2010725460924</v>
+      </c>
+      <c r="O244" t="n">
+        <v>613.52</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr"/>
+      <c r="C245" t="inlineStr"/>
+      <c r="D245" t="inlineStr"/>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="n">
+        <v>5</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="n">
+        <v>612.2010725460924</v>
+      </c>
+      <c r="O245" t="n">
+        <v>622.7710725460925</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr"/>
+      <c r="C246" t="inlineStr"/>
+      <c r="D246" t="inlineStr"/>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="n">
+        <v>7</v>
+      </c>
+      <c r="M246" t="n">
+        <v>2</v>
+      </c>
+      <c r="N246" t="n">
+        <v>612.2846506296006</v>
+      </c>
+      <c r="O246" t="n">
+        <v>612.2846506296006</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr"/>
+      <c r="D247" t="inlineStr"/>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="n">
+        <v>7</v>
+      </c>
+      <c r="M247" t="n">
+        <v>3</v>
+      </c>
+      <c r="N247" t="n">
+        <v>612.2846506296006</v>
+      </c>
+      <c r="O247" t="n">
+        <v>641.7269238719817</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr"/>
+      <c r="C248" t="inlineStr"/>
+      <c r="D248" t="inlineStr"/>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="n">
+        <v>4</v>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="n">
+        <v>613.52</v>
+      </c>
+      <c r="O248" t="n">
+        <v>623.7326794571653</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr"/>
+      <c r="C249" t="inlineStr"/>
+      <c r="D249" t="inlineStr"/>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="n">
+        <v>5</v>
+      </c>
+      <c r="M249" t="n">
+        <v>2</v>
+      </c>
+      <c r="N249" t="n">
+        <v>622.7710725460925</v>
+      </c>
+      <c r="O249" t="n">
+        <v>622.7710725460925</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr"/>
+      <c r="C250" t="inlineStr"/>
+      <c r="D250" t="inlineStr"/>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="n">
+        <v>5</v>
+      </c>
+      <c r="M250" t="n">
+        <v>3</v>
+      </c>
+      <c r="N250" t="n">
+        <v>622.7710725460925</v>
+      </c>
+      <c r="O250" t="n">
+        <v>629.7326794571653</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr"/>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="n">
+        <v>2</v>
+      </c>
+      <c r="M251" t="n">
+        <v>2</v>
+      </c>
+      <c r="N251" t="n">
+        <v>623.52</v>
+      </c>
+      <c r="O251" t="n">
+        <v>623.52</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr"/>
+      <c r="C252" t="inlineStr"/>
+      <c r="D252" t="inlineStr"/>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="n">
+        <v>2</v>
+      </c>
+      <c r="M252" t="n">
+        <v>3</v>
+      </c>
+      <c r="N252" t="n">
+        <v>623.52</v>
+      </c>
+      <c r="O252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr"/>
+      <c r="C253" t="inlineStr"/>
+      <c r="D253" t="inlineStr"/>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="n">
+        <v>4</v>
+      </c>
+      <c r="M253" t="n">
+        <v>2</v>
+      </c>
+      <c r="N253" t="n">
+        <v>623.7326794571653</v>
+      </c>
+      <c r="O253" t="n">
+        <v>623.7326794571653</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr"/>
+      <c r="C254" t="inlineStr"/>
+      <c r="D254" t="inlineStr"/>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="n">
+        <v>4</v>
+      </c>
+      <c r="M254" t="n">
+        <v>3</v>
+      </c>
+      <c r="N254" t="n">
+        <v>623.7326794571653</v>
+      </c>
+      <c r="O254" t="n">
+        <v>773.52</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr"/>
+      <c r="C255" t="inlineStr"/>
+      <c r="D255" t="inlineStr"/>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="n">
+        <v>6</v>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="n">
+        <v>628.7710725460925</v>
+      </c>
+      <c r="O255" t="n">
+        <v>635.7269238719817</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr"/>
+      <c r="C256" t="inlineStr"/>
+      <c r="D256" t="inlineStr"/>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="n">
+        <v>5</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="n">
+        <v>629.7326794571653</v>
+      </c>
+      <c r="O256" t="n">
+        <v>640.3026794571654</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr"/>
+      <c r="C257" t="inlineStr"/>
+      <c r="D257" t="inlineStr"/>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="n">
+        <v>6</v>
+      </c>
+      <c r="M257" t="n">
+        <v>2</v>
+      </c>
+      <c r="N257" t="n">
+        <v>635.7269238719817</v>
+      </c>
+      <c r="O257" t="n">
+        <v>635.7269238719817</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr"/>
+      <c r="D258" t="inlineStr"/>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="n">
+        <v>6</v>
+      </c>
+      <c r="M258" t="n">
+        <v>3</v>
+      </c>
+      <c r="N258" t="n">
+        <v>635.7269238719817</v>
+      </c>
+      <c r="O258" t="n">
+        <v>646.3026794571654</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr"/>
+      <c r="C259" t="inlineStr"/>
+      <c r="D259" t="inlineStr"/>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="n">
+        <v>5</v>
+      </c>
+      <c r="M259" t="n">
+        <v>2</v>
+      </c>
+      <c r="N259" t="n">
+        <v>640.3026794571654</v>
+      </c>
+      <c r="O259" t="n">
+        <v>640.3026794571654</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr"/>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="n">
+        <v>5</v>
+      </c>
+      <c r="M260" t="n">
+        <v>3</v>
+      </c>
+      <c r="N260" t="n">
+        <v>640.3026794571654</v>
+      </c>
+      <c r="O260" t="n">
+        <v>783.428553239161</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="n">
+        <v>3</v>
+      </c>
+      <c r="M261" t="n">
+        <v>1</v>
+      </c>
+      <c r="N261" t="n">
+        <v>641.52</v>
+      </c>
+      <c r="O261" t="n">
+        <v>761.52</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="n">
+        <v>7</v>
+      </c>
+      <c r="M262" t="n">
+        <v>1</v>
+      </c>
+      <c r="N262" t="n">
+        <v>641.7269238719817</v>
+      </c>
+      <c r="O262" t="n">
+        <v>651.0485988884745</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="n">
+        <v>6</v>
+      </c>
+      <c r="M263" t="n">
+        <v>1</v>
+      </c>
+      <c r="N263" t="n">
+        <v>646.3026794571654</v>
+      </c>
+      <c r="O263" t="n">
+        <v>693.7059938509537</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="n">
+        <v>7</v>
+      </c>
+      <c r="M264" t="n">
+        <v>2</v>
+      </c>
+      <c r="N264" t="n">
+        <v>651.0485988884745</v>
+      </c>
+      <c r="O264" t="n">
+        <v>651.0485988884745</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr"/>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr"/>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="n">
+        <v>7</v>
+      </c>
+      <c r="M265" t="n">
+        <v>3</v>
+      </c>
+      <c r="N265" t="n">
+        <v>651.0485988884745</v>
+      </c>
+      <c r="O265" t="n">
+        <v>699.7059938509537</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr"/>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr"/>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="n">
+        <v>6</v>
+      </c>
+      <c r="M266" t="n">
+        <v>2</v>
+      </c>
+      <c r="N266" t="n">
+        <v>693.7059938509537</v>
+      </c>
+      <c r="O266" t="n">
+        <v>693.7059938509537</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="n">
+        <v>6</v>
+      </c>
+      <c r="M267" t="n">
+        <v>3</v>
+      </c>
+      <c r="N267" t="n">
+        <v>693.7059938509537</v>
+      </c>
+      <c r="O267" t="n">
+        <v>799.9985532391611</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr"/>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr"/>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="n">
+        <v>7</v>
+      </c>
+      <c r="M268" t="n">
+        <v>1</v>
+      </c>
+      <c r="N268" t="n">
+        <v>699.7059938509537</v>
+      </c>
+      <c r="O268" t="n">
+        <v>709.0500374221147</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr"/>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr"/>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="n">
+        <v>7</v>
+      </c>
+      <c r="M269" t="n">
+        <v>2</v>
+      </c>
+      <c r="N269" t="n">
+        <v>709.0500374221147</v>
+      </c>
+      <c r="O269" t="n">
+        <v>709.0500374221147</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr"/>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr"/>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="n">
+        <v>7</v>
+      </c>
+      <c r="M270" t="n">
+        <v>3</v>
+      </c>
+      <c r="N270" t="n">
+        <v>709.0500374221147</v>
+      </c>
+      <c r="O270" t="n">
+        <v>844.9216684104721</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="n">
+        <v>3</v>
+      </c>
+      <c r="M271" t="n">
+        <v>2</v>
+      </c>
+      <c r="N271" t="n">
+        <v>761.52</v>
+      </c>
+      <c r="O271" t="n">
+        <v>761.52</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr"/>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr"/>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="n">
+        <v>3</v>
+      </c>
+      <c r="M272" t="n">
+        <v>3</v>
+      </c>
+      <c r="N272" t="n">
+        <v>761.52</v>
+      </c>
+      <c r="O272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr"/>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr"/>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="n">
+        <v>4</v>
+      </c>
+      <c r="M273" t="n">
+        <v>1</v>
+      </c>
+      <c r="N273" t="n">
+        <v>773.52</v>
+      </c>
+      <c r="O273" t="n">
+        <v>777.428553239161</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr"/>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr"/>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="n">
+        <v>4</v>
+      </c>
+      <c r="M274" t="n">
+        <v>2</v>
+      </c>
+      <c r="N274" t="n">
+        <v>777.428553239161</v>
+      </c>
+      <c r="O274" t="n">
+        <v>777.428553239161</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr"/>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr"/>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="n">
+        <v>4</v>
+      </c>
+      <c r="M275" t="n">
+        <v>3</v>
+      </c>
+      <c r="N275" t="n">
+        <v>777.428553239161</v>
+      </c>
+      <c r="O275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr"/>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr"/>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="n">
+        <v>5</v>
+      </c>
+      <c r="M276" t="n">
+        <v>1</v>
+      </c>
+      <c r="N276" t="n">
+        <v>783.428553239161</v>
+      </c>
+      <c r="O276" t="n">
+        <v>793.9985532391611</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr"/>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr"/>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="n">
+        <v>5</v>
+      </c>
+      <c r="M277" t="n">
+        <v>2</v>
+      </c>
+      <c r="N277" t="n">
+        <v>793.9985532391611</v>
+      </c>
+      <c r="O277" t="n">
+        <v>793.9985532391611</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr"/>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr"/>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="n">
+        <v>5</v>
+      </c>
+      <c r="M278" t="n">
+        <v>3</v>
+      </c>
+      <c r="N278" t="n">
+        <v>793.9985532391611</v>
+      </c>
+      <c r="O278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr"/>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr"/>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="n">
+        <v>6</v>
+      </c>
+      <c r="M279" t="n">
+        <v>1</v>
+      </c>
+      <c r="N279" t="n">
+        <v>799.9985532391611</v>
+      </c>
+      <c r="O279" t="n">
+        <v>838.9216684104721</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr"/>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr"/>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="n">
+        <v>6</v>
+      </c>
+      <c r="M280" t="n">
+        <v>2</v>
+      </c>
+      <c r="N280" t="n">
+        <v>838.9216684104721</v>
+      </c>
+      <c r="O280" t="n">
+        <v>838.9216684104721</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr"/>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr"/>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="n">
+        <v>6</v>
+      </c>
+      <c r="M281" t="n">
+        <v>3</v>
+      </c>
+      <c r="N281" t="n">
+        <v>838.9216684104721</v>
+      </c>
+      <c r="O281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr"/>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr"/>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="n">
+        <v>7</v>
+      </c>
+      <c r="M282" t="n">
+        <v>1</v>
+      </c>
+      <c r="N282" t="n">
+        <v>844.9216684104721</v>
+      </c>
+      <c r="O282" t="n">
+        <v>854.5655316432175</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr"/>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr"/>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="n">
+        <v>7</v>
+      </c>
+      <c r="M283" t="n">
+        <v>2</v>
+      </c>
+      <c r="N283" t="n">
+        <v>854.5655316432175</v>
+      </c>
+      <c r="O283" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/current_state.xlsx
+++ b/current_state.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O283"/>
+  <dimension ref="A1:O165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>481.52</v>
+        <v>201.52</v>
       </c>
     </row>
     <row r="5">
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>95.18987104987016</v>
+        <v>93.32370253116046</v>
       </c>
     </row>
     <row r="7">
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>111.7598710498702</v>
+        <v>109.8937025311605</v>
       </c>
     </row>
     <row r="8">
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7394402981049</v>
+        <v>128.3100141947676</v>
       </c>
     </row>
     <row r="9">
@@ -1315,7 +1315,7 @@
         <v>81.52</v>
       </c>
       <c r="O30" t="n">
-        <v>89.18987104987016</v>
+        <v>87.32370253116046</v>
       </c>
     </row>
     <row r="31">
@@ -1341,10 +1341,10 @@
         <v>2</v>
       </c>
       <c r="N31" t="n">
-        <v>89.18987104987016</v>
+        <v>87.32370253116046</v>
       </c>
       <c r="O31" t="n">
-        <v>89.18987104987016</v>
+        <v>87.32370253116046</v>
       </c>
     </row>
     <row r="32">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>89.18987104987016</v>
+        <v>87.32370253116046</v>
       </c>
       <c r="O32" t="n">
         <v>121.52</v>
@@ -1399,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>95.18987104987016</v>
+        <v>93.32370253116046</v>
       </c>
       <c r="O33" t="n">
-        <v>105.7598710498702</v>
+        <v>103.8937025311605</v>
       </c>
     </row>
     <row r="34">
@@ -1573,10 +1573,10 @@
         <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>105.7598710498702</v>
+        <v>103.8937025311605</v>
       </c>
       <c r="O39" t="n">
-        <v>105.7598710498702</v>
+        <v>103.8937025311605</v>
       </c>
     </row>
     <row r="40">
@@ -1602,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>105.7598710498702</v>
+        <v>103.8937025311605</v>
       </c>
       <c r="O40" t="n">
-        <v>136.1314043665547</v>
+        <v>135.7837806055641</v>
       </c>
     </row>
     <row r="41">
@@ -1631,10 +1631,10 @@
         <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>111.7598710498702</v>
+        <v>109.8937025311605</v>
       </c>
       <c r="O41" t="n">
-        <v>144.7394402981049</v>
+        <v>122.3100141947676</v>
       </c>
     </row>
     <row r="42">
@@ -1692,7 +1692,7 @@
         <v>121.52</v>
       </c>
       <c r="O43" t="n">
-        <v>130.1314043665547</v>
+        <v>129.7837806055641</v>
       </c>
     </row>
     <row r="44">
@@ -1712,16 +1712,16 @@
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="n">
-        <v>130.1314043665547</v>
+        <v>122.3100141947676</v>
       </c>
       <c r="O44" t="n">
-        <v>130.1314043665547</v>
+        <v>122.3100141947676</v>
       </c>
     </row>
     <row r="45">
@@ -1741,16 +1741,16 @@
         <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>130.1314043665547</v>
+        <v>122.3100141947676</v>
       </c>
       <c r="O45" t="n">
-        <v>161.52</v>
+        <v>145.2837806055641</v>
       </c>
     </row>
     <row r="46">
@@ -1770,16 +1770,16 @@
         <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>136.1314043665547</v>
+        <v>128.3100141947676</v>
       </c>
       <c r="O46" t="n">
-        <v>146.7014043665547</v>
+        <v>139.2740665407352</v>
       </c>
     </row>
     <row r="47">
@@ -1799,16 +1799,16 @@
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="n">
-        <v>143.52</v>
+        <v>129.7837806055641</v>
       </c>
       <c r="O47" t="n">
-        <v>143.52</v>
+        <v>129.7837806055641</v>
       </c>
     </row>
     <row r="48">
@@ -1828,16 +1828,16 @@
         <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>143.52</v>
+        <v>129.7837806055641</v>
       </c>
       <c r="O48" t="n">
-        <v>143.52</v>
+        <v>161.52</v>
       </c>
     </row>
     <row r="49">
@@ -1857,16 +1857,16 @@
         <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>143.52</v>
+        <v>135.7837806055641</v>
       </c>
       <c r="O49" t="n">
-        <v>183.52</v>
+        <v>139.2837806055641</v>
       </c>
     </row>
     <row r="50">
@@ -1886,16 +1886,16 @@
         <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N50" t="n">
-        <v>143.52</v>
+        <v>139.2740665407352</v>
       </c>
       <c r="O50" t="n">
-        <v>143.52</v>
+        <v>139.2740665407352</v>
       </c>
     </row>
     <row r="51">
@@ -1915,16 +1915,16 @@
         <v>1</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N51" t="n">
-        <v>143.52</v>
+        <v>139.2740665407352</v>
       </c>
       <c r="O51" t="n">
-        <v>154.04</v>
+        <v>162.8189266150619</v>
       </c>
     </row>
     <row r="52">
@@ -1944,16 +1944,16 @@
         <v>1</v>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="n">
-        <v>144.7394402981049</v>
+        <v>139.2837806055641</v>
       </c>
       <c r="O52" t="n">
-        <v>144.7394402981049</v>
+        <v>139.2837806055641</v>
       </c>
     </row>
     <row r="53">
@@ -1973,16 +1973,16 @@
         <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="n">
-        <v>144.7394402981049</v>
+        <v>139.2837806055641</v>
       </c>
       <c r="O53" t="n">
-        <v>152.7014043665547</v>
+        <v>171.7470886956819</v>
       </c>
     </row>
     <row r="54">
@@ -2002,16 +2002,16 @@
         <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="n">
-        <v>146.7014043665547</v>
+        <v>143.52</v>
       </c>
       <c r="O54" t="n">
-        <v>146.7014043665547</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="55">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>146.7014043665547</v>
+        <v>143.52</v>
       </c>
       <c r="O55" t="n">
-        <v>172.7520804215764</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="56">
@@ -2060,16 +2060,16 @@
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>150.7394402981049</v>
+        <v>143.52</v>
       </c>
       <c r="O56" t="n">
-        <v>161.7034926440726</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="57">
@@ -2089,16 +2089,16 @@
         <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N57" t="n">
-        <v>152.7014043665547</v>
+        <v>143.52</v>
       </c>
       <c r="O57" t="n">
-        <v>159.7769404530931</v>
+        <v>143.52</v>
       </c>
     </row>
     <row r="58">
@@ -2121,13 +2121,13 @@
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
+        <v>143.52</v>
+      </c>
+      <c r="O58" t="n">
         <v>154.04</v>
-      </c>
-      <c r="O58" t="n">
-        <v>183.52</v>
       </c>
     </row>
     <row r="59">
@@ -2150,13 +2150,13 @@
         <v>6</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>159.7769404530931</v>
+        <v>145.2837806055641</v>
       </c>
       <c r="O59" t="n">
-        <v>159.7769404530931</v>
+        <v>156.8189266150619</v>
       </c>
     </row>
     <row r="60">
@@ -2176,16 +2176,16 @@
         <v>1</v>
       </c>
       <c r="L60" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N60" t="n">
-        <v>159.7769404530931</v>
+        <v>154.04</v>
       </c>
       <c r="O60" t="n">
-        <v>189.3220804215764</v>
+        <v>183.52</v>
       </c>
     </row>
     <row r="61">
@@ -2205,16 +2205,16 @@
         <v>1</v>
       </c>
       <c r="L61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>161.52</v>
+        <v>156.8189266150619</v>
       </c>
       <c r="O61" t="n">
-        <v>166.7520804215764</v>
+        <v>156.8189266150619</v>
       </c>
     </row>
     <row r="62">
@@ -2234,16 +2234,16 @@
         <v>1</v>
       </c>
       <c r="L62" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N62" t="n">
-        <v>161.7034926440726</v>
+        <v>156.8189266150619</v>
       </c>
       <c r="O62" t="n">
-        <v>161.7034926440726</v>
+        <v>188.3170886956819</v>
       </c>
     </row>
     <row r="63">
@@ -2263,16 +2263,16 @@
         <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>161.7034926440726</v>
+        <v>161.52</v>
       </c>
       <c r="O63" t="n">
-        <v>165.7769404530931</v>
+        <v>165.7470886956819</v>
       </c>
     </row>
     <row r="64">
@@ -2298,10 +2298,10 @@
         <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>165.7769404530931</v>
+        <v>162.8189266150619</v>
       </c>
       <c r="O64" t="n">
-        <v>175.3770976614603</v>
+        <v>172.4190838234292</v>
       </c>
     </row>
     <row r="65">
@@ -2327,10 +2327,10 @@
         <v>2</v>
       </c>
       <c r="N65" t="n">
-        <v>166.7520804215764</v>
+        <v>165.7470886956819</v>
       </c>
       <c r="O65" t="n">
-        <v>166.7520804215764</v>
+        <v>165.7470886956819</v>
       </c>
     </row>
     <row r="66">
@@ -2356,10 +2356,10 @@
         <v>3</v>
       </c>
       <c r="N66" t="n">
-        <v>166.7520804215764</v>
+        <v>165.7470886956819</v>
       </c>
       <c r="O66" t="n">
-        <v>201.52</v>
+        <v>241.52</v>
       </c>
     </row>
     <row r="67">
@@ -2385,10 +2385,10 @@
         <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>172.7520804215764</v>
+        <v>171.7470886956819</v>
       </c>
       <c r="O67" t="n">
-        <v>183.3220804215764</v>
+        <v>182.3170886956819</v>
       </c>
     </row>
     <row r="68">
@@ -2414,10 +2414,10 @@
         <v>2</v>
       </c>
       <c r="N68" t="n">
-        <v>175.3770976614603</v>
+        <v>172.4190838234292</v>
       </c>
       <c r="O68" t="n">
-        <v>175.3770976614603</v>
+        <v>172.4190838234292</v>
       </c>
     </row>
     <row r="69">
@@ -2443,10 +2443,10 @@
         <v>3</v>
       </c>
       <c r="N69" t="n">
-        <v>175.3770976614603</v>
+        <v>172.4190838234292</v>
       </c>
       <c r="O69" t="n">
-        <v>200.3941574520776</v>
+        <v>215.3813464989274</v>
       </c>
     </row>
     <row r="70">
@@ -2472,10 +2472,10 @@
         <v>2</v>
       </c>
       <c r="N70" t="n">
-        <v>183.3220804215764</v>
+        <v>182.3170886956819</v>
       </c>
       <c r="O70" t="n">
-        <v>183.3220804215764</v>
+        <v>182.3170886956819</v>
       </c>
     </row>
     <row r="71">
@@ -2501,10 +2501,10 @@
         <v>3</v>
       </c>
       <c r="N71" t="n">
-        <v>183.3220804215764</v>
+        <v>182.3170886956819</v>
       </c>
       <c r="O71" t="n">
-        <v>217.4669846649108</v>
+        <v>254.5646977037305</v>
       </c>
     </row>
     <row r="72">
@@ -2675,10 +2675,10 @@
         <v>1</v>
       </c>
       <c r="N77" t="n">
-        <v>189.3220804215764</v>
+        <v>188.3170886956819</v>
       </c>
       <c r="O77" t="n">
-        <v>194.3941574520776</v>
+        <v>209.3813464989274</v>
       </c>
     </row>
     <row r="78">
@@ -2727,16 +2727,16 @@
         <v>1</v>
       </c>
       <c r="L79" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
-        <v>194.3941574520776</v>
+        <v>201.52</v>
       </c>
       <c r="O79" t="n">
-        <v>194.3941574520776</v>
+        <v>282.52</v>
       </c>
     </row>
     <row r="80">
@@ -2759,13 +2759,13 @@
         <v>6</v>
       </c>
       <c r="M80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N80" t="n">
-        <v>194.3941574520776</v>
+        <v>209.3813464989274</v>
       </c>
       <c r="O80" t="n">
-        <v>234.0369846649108</v>
+        <v>209.3813464989274</v>
       </c>
     </row>
     <row r="81">
@@ -2785,16 +2785,16 @@
         <v>1</v>
       </c>
       <c r="L81" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N81" t="n">
-        <v>200.3941574520776</v>
+        <v>209.3813464989274</v>
       </c>
       <c r="O81" t="n">
-        <v>210.5728954361833</v>
+        <v>271.1346977037305</v>
       </c>
     </row>
     <row r="82">
@@ -2814,16 +2814,16 @@
         <v>1</v>
       </c>
       <c r="L82" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
       <c r="N82" t="n">
-        <v>201.52</v>
+        <v>215.3813464989274</v>
       </c>
       <c r="O82" t="n">
-        <v>211.4669846649108</v>
+        <v>225.5600844830331</v>
       </c>
     </row>
     <row r="83">
@@ -2843,16 +2843,16 @@
         <v>1</v>
       </c>
       <c r="L83" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="n">
-        <v>210.5728954361833</v>
+        <v>223.52</v>
       </c>
       <c r="O83" t="n">
-        <v>210.5728954361833</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="84">
@@ -2872,16 +2872,16 @@
         <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="n">
-        <v>210.5728954361833</v>
+        <v>223.52</v>
       </c>
       <c r="O84" t="n">
-        <v>261.9806970945549</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="85">
@@ -2901,16 +2901,16 @@
         <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N85" t="n">
-        <v>211.4669846649108</v>
+        <v>223.52</v>
       </c>
       <c r="O85" t="n">
-        <v>211.4669846649108</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="86">
@@ -2930,16 +2930,16 @@
         <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="n">
-        <v>211.4669846649108</v>
+        <v>223.52</v>
       </c>
       <c r="O86" t="n">
-        <v>241.52</v>
+        <v>223.52</v>
       </c>
     </row>
     <row r="87">
@@ -2959,16 +2959,16 @@
         <v>1</v>
       </c>
       <c r="L87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
       <c r="N87" t="n">
-        <v>217.4669846649108</v>
+        <v>223.52</v>
       </c>
       <c r="O87" t="n">
-        <v>228.0369846649108</v>
+        <v>234.04</v>
       </c>
     </row>
     <row r="88">
@@ -2988,16 +2988,16 @@
         <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M88" t="n">
         <v>2</v>
       </c>
       <c r="N88" t="n">
-        <v>223.52</v>
+        <v>225.5600844830331</v>
       </c>
       <c r="O88" t="n">
-        <v>223.52</v>
+        <v>225.5600844830331</v>
       </c>
     </row>
     <row r="89">
@@ -3017,16 +3017,16 @@
         <v>1</v>
       </c>
       <c r="L89" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="n">
-        <v>223.52</v>
+        <v>225.5600844830331</v>
       </c>
       <c r="O89" t="n">
-        <v>223.52</v>
+        <v>291.4948950364214</v>
       </c>
     </row>
     <row r="90">
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="L90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N90" t="n">
-        <v>223.52</v>
+        <v>234.04</v>
       </c>
       <c r="O90" t="n">
         <v>263.52</v>
@@ -3075,16 +3075,16 @@
         <v>1</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N91" t="n">
-        <v>223.52</v>
+        <v>241.52</v>
       </c>
       <c r="O91" t="n">
-        <v>223.52</v>
+        <v>248.5646977037305</v>
       </c>
     </row>
     <row r="92">
@@ -3104,16 +3104,16 @@
         <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N92" t="n">
-        <v>223.52</v>
+        <v>248.5646977037305</v>
       </c>
       <c r="O92" t="n">
-        <v>234.04</v>
+        <v>248.5646977037305</v>
       </c>
     </row>
     <row r="93">
@@ -3133,16 +3133,16 @@
         <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N93" t="n">
-        <v>228.0369846649108</v>
+        <v>248.5646977037305</v>
       </c>
       <c r="O93" t="n">
-        <v>228.0369846649108</v>
+        <v>281.52</v>
       </c>
     </row>
     <row r="94">
@@ -3165,13 +3165,13 @@
         <v>5</v>
       </c>
       <c r="M94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>228.0369846649108</v>
+        <v>254.5646977037305</v>
       </c>
       <c r="O94" t="n">
-        <v>251.9898978713572</v>
+        <v>265.1346977037305</v>
       </c>
     </row>
     <row r="95">
@@ -3191,16 +3191,16 @@
         <v>1</v>
       </c>
       <c r="L95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N95" t="n">
-        <v>234.0369846649108</v>
+        <v>263.52</v>
       </c>
       <c r="O95" t="n">
-        <v>255.9806970945549</v>
+        <v>263.52</v>
       </c>
     </row>
     <row r="96">
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N96" t="n">
-        <v>234.04</v>
+        <v>263.52</v>
       </c>
       <c r="O96" t="n">
         <v>263.52</v>
@@ -3249,16 +3249,16 @@
         <v>1</v>
       </c>
       <c r="L97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
       <c r="N97" t="n">
-        <v>241.52</v>
+        <v>263.52</v>
       </c>
       <c r="O97" t="n">
-        <v>245.9898978713572</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="98">
@@ -3278,17 +3278,15 @@
         <v>1</v>
       </c>
       <c r="L98" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N98" t="n">
-        <v>245.9898978713572</v>
-      </c>
-      <c r="O98" t="n">
-        <v>245.9898978713572</v>
-      </c>
+        <v>263.52</v>
+      </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3307,16 +3305,16 @@
         <v>1</v>
       </c>
       <c r="L99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N99" t="n">
-        <v>245.9898978713572</v>
+        <v>265.1346977037305</v>
       </c>
       <c r="O99" t="n">
-        <v>281.52</v>
+        <v>265.1346977037305</v>
       </c>
     </row>
     <row r="100">
@@ -3339,13 +3337,13 @@
         <v>5</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N100" t="n">
-        <v>251.9898978713572</v>
+        <v>265.1346977037305</v>
       </c>
       <c r="O100" t="n">
-        <v>262.5598978713572</v>
+        <v>292.9059522865387</v>
       </c>
     </row>
     <row r="101">
@@ -3368,13 +3366,13 @@
         <v>6</v>
       </c>
       <c r="M101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N101" t="n">
-        <v>255.9806970945549</v>
+        <v>271.1346977037305</v>
       </c>
       <c r="O101" t="n">
-        <v>255.9806970945549</v>
+        <v>285.4948950364214</v>
       </c>
     </row>
     <row r="102">
@@ -3394,16 +3392,16 @@
         <v>1</v>
       </c>
       <c r="L102" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M102" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N102" t="n">
-        <v>255.9806970945549</v>
+        <v>281.52</v>
       </c>
       <c r="O102" t="n">
-        <v>268.5598978713572</v>
+        <v>286.9059522865387</v>
       </c>
     </row>
     <row r="103">
@@ -3423,16 +3421,16 @@
         <v>1</v>
       </c>
       <c r="L103" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N103" t="n">
-        <v>261.9806970945549</v>
+        <v>282.52</v>
       </c>
       <c r="O103" t="n">
-        <v>273.4215902937564</v>
+        <v>282.52</v>
       </c>
     </row>
     <row r="104">
@@ -3452,17 +3450,15 @@
         <v>1</v>
       </c>
       <c r="L104" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N104" t="n">
-        <v>262.5598978713572</v>
-      </c>
-      <c r="O104" t="n">
-        <v>262.5598978713572</v>
-      </c>
+        <v>282.52</v>
+      </c>
+      <c r="O104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3481,16 +3477,16 @@
         <v>1</v>
       </c>
       <c r="L105" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N105" t="n">
-        <v>262.5598978713572</v>
+        <v>285.4948950364214</v>
       </c>
       <c r="O105" t="n">
-        <v>294.0365459879236</v>
+        <v>285.4948950364214</v>
       </c>
     </row>
     <row r="106">
@@ -3510,16 +3506,16 @@
         <v>1</v>
       </c>
       <c r="L106" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N106" t="n">
-        <v>263.52</v>
+        <v>285.4948950364214</v>
       </c>
       <c r="O106" t="n">
-        <v>263.52</v>
+        <v>309.4759522865387</v>
       </c>
     </row>
     <row r="107">
@@ -3539,16 +3535,16 @@
         <v>1</v>
       </c>
       <c r="L107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N107" t="n">
-        <v>263.52</v>
+        <v>286.9059522865387</v>
       </c>
       <c r="O107" t="n">
-        <v>263.52</v>
+        <v>286.9059522865387</v>
       </c>
     </row>
     <row r="108">
@@ -3568,16 +3564,16 @@
         <v>1</v>
       </c>
       <c r="L108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N108" t="n">
-        <v>263.52</v>
+        <v>286.9059522865387</v>
       </c>
       <c r="O108" t="n">
-        <v>303.52</v>
+        <v>294.52</v>
       </c>
     </row>
     <row r="109">
@@ -3597,16 +3593,16 @@
         <v>1</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N109" t="n">
-        <v>263.52</v>
+        <v>291.4948950364214</v>
       </c>
       <c r="O109" t="n">
-        <v>263.52</v>
+        <v>302.5624530265713</v>
       </c>
     </row>
     <row r="110">
@@ -3626,16 +3622,16 @@
         <v>1</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
       <c r="N110" t="n">
-        <v>263.52</v>
+        <v>292.9059522865387</v>
       </c>
       <c r="O110" t="n">
-        <v>274.04</v>
+        <v>303.4759522865387</v>
       </c>
     </row>
     <row r="111">
@@ -3655,16 +3651,16 @@
         <v>1</v>
       </c>
       <c r="L111" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
       <c r="N111" t="n">
-        <v>268.5598978713572</v>
+        <v>294.52</v>
       </c>
       <c r="O111" t="n">
-        <v>273.3712613003709</v>
+        <v>300.6280366870068</v>
       </c>
     </row>
     <row r="112">
@@ -3684,16 +3680,16 @@
         <v>1</v>
       </c>
       <c r="L112" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M112" t="n">
         <v>2</v>
       </c>
       <c r="N112" t="n">
-        <v>273.3712613003709</v>
+        <v>300.6280366870068</v>
       </c>
       <c r="O112" t="n">
-        <v>273.3712613003709</v>
+        <v>300.6280366870068</v>
       </c>
     </row>
     <row r="113">
@@ -3713,16 +3709,16 @@
         <v>1</v>
       </c>
       <c r="L113" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M113" t="n">
         <v>3</v>
       </c>
       <c r="N113" t="n">
-        <v>273.3712613003709</v>
+        <v>300.6280366870068</v>
       </c>
       <c r="O113" t="n">
-        <v>310.6065459879236</v>
+        <v>321.52</v>
       </c>
     </row>
     <row r="114">
@@ -3748,10 +3744,10 @@
         <v>2</v>
       </c>
       <c r="N114" t="n">
-        <v>273.4215902937564</v>
+        <v>302.5624530265713</v>
       </c>
       <c r="O114" t="n">
-        <v>273.4215902937564</v>
+        <v>302.5624530265713</v>
       </c>
     </row>
     <row r="115">
@@ -3777,10 +3773,10 @@
         <v>3</v>
       </c>
       <c r="N115" t="n">
-        <v>273.4215902937564</v>
+        <v>302.5624530265713</v>
       </c>
       <c r="O115" t="n">
-        <v>279.3712613003709</v>
+        <v>319.0563642262762</v>
       </c>
     </row>
     <row r="116">
@@ -3800,16 +3796,16 @@
         <v>1</v>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M116" t="n">
         <v>2</v>
       </c>
       <c r="N116" t="n">
-        <v>274.04</v>
+        <v>303.4759522865387</v>
       </c>
       <c r="O116" t="n">
-        <v>303.52</v>
+        <v>303.4759522865387</v>
       </c>
     </row>
     <row r="117">
@@ -3829,16 +3825,16 @@
         <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N117" t="n">
-        <v>279.3712613003709</v>
+        <v>303.4759522865387</v>
       </c>
       <c r="O117" t="n">
-        <v>290.4388192905208</v>
+        <v>306.6280366870068</v>
       </c>
     </row>
     <row r="118">
@@ -3858,16 +3854,16 @@
         <v>1</v>
       </c>
       <c r="L118" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N118" t="n">
-        <v>281.52</v>
+        <v>303.52</v>
       </c>
       <c r="O118" t="n">
-        <v>288.0365459879236</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="119">
@@ -3887,16 +3883,16 @@
         <v>1</v>
       </c>
       <c r="L119" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N119" t="n">
-        <v>288.0365459879236</v>
+        <v>303.52</v>
       </c>
       <c r="O119" t="n">
-        <v>288.0365459879236</v>
+        <v>303.52</v>
       </c>
     </row>
     <row r="120">
@@ -3916,16 +3912,16 @@
         <v>1</v>
       </c>
       <c r="L120" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N120" t="n">
-        <v>288.0365459879236</v>
+        <v>303.52</v>
       </c>
       <c r="O120" t="n">
-        <v>321.52</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="121">
@@ -3945,16 +3941,16 @@
         <v>1</v>
       </c>
       <c r="L121" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N121" t="n">
-        <v>290.4388192905208</v>
+        <v>306.6280366870068</v>
       </c>
       <c r="O121" t="n">
-        <v>290.4388192905208</v>
+        <v>317.1980366870068</v>
       </c>
     </row>
     <row r="122">
@@ -3974,16 +3970,16 @@
         <v>1</v>
       </c>
       <c r="L122" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N122" t="n">
-        <v>290.4388192905208</v>
+        <v>309.4759522865387</v>
       </c>
       <c r="O122" t="n">
-        <v>320.3615903556284</v>
+        <v>313.0563642262762</v>
       </c>
     </row>
     <row r="123">
@@ -4003,16 +3999,16 @@
         <v>1</v>
       </c>
       <c r="L123" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N123" t="n">
-        <v>294.0365459879236</v>
+        <v>313.0563642262762</v>
       </c>
       <c r="O123" t="n">
-        <v>304.6065459879236</v>
+        <v>313.0563642262762</v>
       </c>
     </row>
     <row r="124">
@@ -4032,16 +4028,16 @@
         <v>1</v>
       </c>
       <c r="L124" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N124" t="n">
-        <v>303.52</v>
+        <v>313.0563642262762</v>
       </c>
       <c r="O124" t="n">
-        <v>303.52</v>
+        <v>323.1980366870068</v>
       </c>
     </row>
     <row r="125">
@@ -4061,16 +4057,16 @@
         <v>1</v>
       </c>
       <c r="L125" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N125" t="n">
-        <v>303.52</v>
+        <v>317.1980366870068</v>
       </c>
       <c r="O125" t="n">
-        <v>303.52</v>
+        <v>317.1980366870068</v>
       </c>
     </row>
     <row r="126">
@@ -4090,16 +4086,16 @@
         <v>1</v>
       </c>
       <c r="L126" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N126" t="n">
-        <v>303.52</v>
+        <v>317.1980366870068</v>
       </c>
       <c r="O126" t="n">
-        <v>343.52</v>
+        <v>339.8073936960093</v>
       </c>
     </row>
     <row r="127">
@@ -4119,16 +4115,16 @@
         <v>1</v>
       </c>
       <c r="L127" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N127" t="n">
-        <v>303.52</v>
+        <v>319.0563642262762</v>
       </c>
       <c r="O127" t="n">
-        <v>303.52</v>
+        <v>327.2790863463998</v>
       </c>
     </row>
     <row r="128">
@@ -4148,16 +4144,16 @@
         <v>1</v>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
       <c r="N128" t="n">
-        <v>303.52</v>
+        <v>321.52</v>
       </c>
       <c r="O128" t="n">
-        <v>314.04</v>
+        <v>333.8073936960093</v>
       </c>
     </row>
     <row r="129">
@@ -4177,16 +4173,16 @@
         <v>1</v>
       </c>
       <c r="L129" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N129" t="n">
-        <v>304.6065459879236</v>
+        <v>323.1980366870068</v>
       </c>
       <c r="O129" t="n">
-        <v>304.6065459879236</v>
+        <v>329.5749162719339</v>
       </c>
     </row>
     <row r="130">
@@ -4206,16 +4202,16 @@
         <v>1</v>
       </c>
       <c r="L130" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N130" t="n">
-        <v>304.6065459879236</v>
+        <v>327.2790863463998</v>
       </c>
       <c r="O130" t="n">
-        <v>333.0819307193585</v>
+        <v>327.2790863463998</v>
       </c>
     </row>
     <row r="131">
@@ -4235,16 +4231,16 @@
         <v>1</v>
       </c>
       <c r="L131" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N131" t="n">
-        <v>310.6065459879236</v>
+        <v>327.2790863463998</v>
       </c>
       <c r="O131" t="n">
-        <v>314.3615903556284</v>
+        <v>335.5749162719339</v>
       </c>
     </row>
     <row r="132">
@@ -4264,16 +4260,16 @@
         <v>1</v>
       </c>
       <c r="L132" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M132" t="n">
         <v>2</v>
       </c>
       <c r="N132" t="n">
-        <v>314.04</v>
+        <v>329.5749162719339</v>
       </c>
       <c r="O132" t="n">
-        <v>343.52</v>
+        <v>329.5749162719339</v>
       </c>
     </row>
     <row r="133">
@@ -4296,13 +4292,13 @@
         <v>6</v>
       </c>
       <c r="M133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N133" t="n">
-        <v>314.3615903556284</v>
+        <v>329.5749162719339</v>
       </c>
       <c r="O133" t="n">
-        <v>314.3615903556284</v>
+        <v>356.3773936960093</v>
       </c>
     </row>
     <row r="134">
@@ -4322,16 +4318,16 @@
         <v>1</v>
       </c>
       <c r="L134" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N134" t="n">
-        <v>314.3615903556284</v>
+        <v>333.8073936960093</v>
       </c>
       <c r="O134" t="n">
-        <v>349.6519307193585</v>
+        <v>333.8073936960093</v>
       </c>
     </row>
     <row r="135">
@@ -4351,16 +4347,16 @@
         <v>1</v>
       </c>
       <c r="L135" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N135" t="n">
-        <v>320.3615903556284</v>
+        <v>333.8073936960093</v>
       </c>
       <c r="O135" t="n">
-        <v>328.584312475752</v>
+        <v>361.52</v>
       </c>
     </row>
     <row r="136">
@@ -4380,16 +4376,16 @@
         <v>1</v>
       </c>
       <c r="L136" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
       <c r="N136" t="n">
-        <v>321.52</v>
+        <v>335.5749162719339</v>
       </c>
       <c r="O136" t="n">
-        <v>327.0819307193585</v>
+        <v>347.0158094711354</v>
       </c>
     </row>
     <row r="137">
@@ -4409,16 +4405,16 @@
         <v>1</v>
       </c>
       <c r="L137" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N137" t="n">
-        <v>327.0819307193585</v>
+        <v>339.8073936960093</v>
       </c>
       <c r="O137" t="n">
-        <v>327.0819307193585</v>
+        <v>350.3773936960093</v>
       </c>
     </row>
     <row r="138">
@@ -4438,16 +4434,16 @@
         <v>1</v>
       </c>
       <c r="L138" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N138" t="n">
-        <v>327.0819307193585</v>
+        <v>343.52</v>
       </c>
       <c r="O138" t="n">
-        <v>361.52</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="139">
@@ -4467,16 +4463,16 @@
         <v>1</v>
       </c>
       <c r="L139" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N139" t="n">
-        <v>328.584312475752</v>
+        <v>343.52</v>
       </c>
       <c r="O139" t="n">
-        <v>328.584312475752</v>
+        <v>343.52</v>
       </c>
     </row>
     <row r="140">
@@ -4496,16 +4492,16 @@
         <v>1</v>
       </c>
       <c r="L140" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N140" t="n">
-        <v>328.584312475752</v>
+        <v>343.52</v>
       </c>
       <c r="O140" t="n">
-        <v>375.2490376247814</v>
+        <v>383.52</v>
       </c>
     </row>
     <row r="141">
@@ -4525,16 +4521,16 @@
         <v>1</v>
       </c>
       <c r="L141" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N141" t="n">
-        <v>333.0819307193585</v>
+        <v>347.0158094711354</v>
       </c>
       <c r="O141" t="n">
-        <v>343.6519307193585</v>
+        <v>347.0158094711354</v>
       </c>
     </row>
     <row r="142">
@@ -4554,16 +4550,16 @@
         <v>1</v>
       </c>
       <c r="L142" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N142" t="n">
-        <v>343.52</v>
+        <v>347.0158094711354</v>
       </c>
       <c r="O142" t="n">
-        <v>343.52</v>
+        <v>368.9792300119041</v>
       </c>
     </row>
     <row r="143">
@@ -4583,16 +4579,16 @@
         <v>1</v>
       </c>
       <c r="L143" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N143" t="n">
-        <v>343.52</v>
+        <v>350.3773936960093</v>
       </c>
       <c r="O143" t="n">
-        <v>343.52</v>
+        <v>350.3773936960093</v>
       </c>
     </row>
     <row r="144">
@@ -4612,16 +4608,16 @@
         <v>1</v>
       </c>
       <c r="L144" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N144" t="n">
-        <v>343.52</v>
+        <v>350.3773936960093</v>
       </c>
       <c r="O144" t="n">
-        <v>383.52</v>
+        <v>373.2716174635755</v>
       </c>
     </row>
     <row r="145">
@@ -4641,16 +4637,16 @@
         <v>1</v>
       </c>
       <c r="L145" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N145" t="n">
-        <v>343.52</v>
+        <v>356.3773936960093</v>
       </c>
       <c r="O145" t="n">
-        <v>343.52</v>
+        <v>362.9792300119041</v>
       </c>
     </row>
     <row r="146">
@@ -4670,16 +4666,16 @@
         <v>1</v>
       </c>
       <c r="L146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
       <c r="N146" t="n">
-        <v>343.52</v>
+        <v>361.52</v>
       </c>
       <c r="O146" t="n">
-        <v>354.04</v>
+        <v>367.2716174635755</v>
       </c>
     </row>
     <row r="147">
@@ -4699,16 +4695,16 @@
         <v>1</v>
       </c>
       <c r="L147" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M147" t="n">
         <v>2</v>
       </c>
       <c r="N147" t="n">
-        <v>343.6519307193585</v>
+        <v>362.9792300119041</v>
       </c>
       <c r="O147" t="n">
-        <v>343.6519307193585</v>
+        <v>362.9792300119041</v>
       </c>
     </row>
     <row r="148">
@@ -4728,16 +4724,16 @@
         <v>1</v>
       </c>
       <c r="L148" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M148" t="n">
         <v>3</v>
       </c>
       <c r="N148" t="n">
-        <v>343.6519307193585</v>
+        <v>362.9792300119041</v>
       </c>
       <c r="O148" t="n">
-        <v>373.8493818919974</v>
+        <v>389.8416174635755</v>
       </c>
     </row>
     <row r="149">
@@ -4757,16 +4753,16 @@
         <v>1</v>
       </c>
       <c r="L149" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N149" t="n">
-        <v>349.6519307193585</v>
+        <v>367.2716174635755</v>
       </c>
       <c r="O149" t="n">
-        <v>369.2490376247814</v>
+        <v>367.2716174635755</v>
       </c>
     </row>
     <row r="150">
@@ -4786,16 +4782,16 @@
         <v>1</v>
       </c>
       <c r="L150" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N150" t="n">
-        <v>354.04</v>
+        <v>367.2716174635755</v>
       </c>
       <c r="O150" t="n">
-        <v>383.52</v>
+        <v>401.52</v>
       </c>
     </row>
     <row r="151">
@@ -4815,16 +4811,16 @@
         <v>1</v>
       </c>
       <c r="L151" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
       <c r="N151" t="n">
-        <v>361.52</v>
+        <v>368.9792300119041</v>
       </c>
       <c r="O151" t="n">
-        <v>367.8493818919974</v>
+        <v>379.1293184294297</v>
       </c>
     </row>
     <row r="152">
@@ -4844,16 +4840,16 @@
         <v>1</v>
       </c>
       <c r="L152" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N152" t="n">
-        <v>367.8493818919974</v>
+        <v>373.2716174635755</v>
       </c>
       <c r="O152" t="n">
-        <v>367.8493818919974</v>
+        <v>383.8416174635755</v>
       </c>
     </row>
     <row r="153">
@@ -4873,16 +4869,16 @@
         <v>1</v>
       </c>
       <c r="L153" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N153" t="n">
-        <v>367.8493818919974</v>
+        <v>379.1293184294297</v>
       </c>
       <c r="O153" t="n">
-        <v>401.52</v>
+        <v>379.1293184294297</v>
       </c>
     </row>
     <row r="154">
@@ -4902,16 +4898,16 @@
         <v>1</v>
       </c>
       <c r="L154" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N154" t="n">
-        <v>369.2490376247814</v>
+        <v>379.1293184294297</v>
       </c>
       <c r="O154" t="n">
-        <v>369.2490376247814</v>
+        <v>403.0329153657805</v>
       </c>
     </row>
     <row r="155">
@@ -4931,16 +4927,16 @@
         <v>1</v>
       </c>
       <c r="L155" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N155" t="n">
-        <v>369.2490376247814</v>
+        <v>383.52</v>
       </c>
       <c r="O155" t="n">
-        <v>390.4193818919974</v>
+        <v>383.52</v>
       </c>
     </row>
     <row r="156">
@@ -4960,16 +4956,16 @@
         <v>1</v>
       </c>
       <c r="L156" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M156" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N156" t="n">
-        <v>373.8493818919974</v>
+        <v>383.52</v>
       </c>
       <c r="O156" t="n">
-        <v>384.4193818919974</v>
+        <v>383.52</v>
       </c>
     </row>
     <row r="157">
@@ -4989,17 +4985,15 @@
         <v>1</v>
       </c>
       <c r="L157" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
       <c r="N157" t="n">
-        <v>375.2490376247814</v>
-      </c>
-      <c r="O157" t="n">
-        <v>385.3991260423069</v>
-      </c>
+        <v>383.52</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5018,16 +5012,16 @@
         <v>1</v>
       </c>
       <c r="L158" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M158" t="n">
         <v>2</v>
       </c>
       <c r="N158" t="n">
-        <v>383.52</v>
+        <v>383.8416174635755</v>
       </c>
       <c r="O158" t="n">
-        <v>383.52</v>
+        <v>383.8416174635755</v>
       </c>
     </row>
     <row r="159">
@@ -5047,17 +5041,15 @@
         <v>1</v>
       </c>
       <c r="L159" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M159" t="n">
         <v>3</v>
       </c>
       <c r="N159" t="n">
-        <v>383.52</v>
-      </c>
-      <c r="O159" t="n">
-        <v>383.52</v>
-      </c>
+        <v>383.8416174635755</v>
+      </c>
+      <c r="O159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5076,16 +5068,16 @@
         <v>1</v>
       </c>
       <c r="L160" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
       <c r="N160" t="n">
-        <v>383.52</v>
+        <v>389.8416174635755</v>
       </c>
       <c r="O160" t="n">
-        <v>423.52</v>
+        <v>397.0329153657805</v>
       </c>
     </row>
     <row r="161">
@@ -5105,16 +5097,16 @@
         <v>1</v>
       </c>
       <c r="L161" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N161" t="n">
-        <v>383.52</v>
+        <v>397.0329153657805</v>
       </c>
       <c r="O161" t="n">
-        <v>383.52</v>
+        <v>397.0329153657805</v>
       </c>
     </row>
     <row r="162">
@@ -5134,17 +5126,15 @@
         <v>1</v>
       </c>
       <c r="L162" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M162" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N162" t="n">
-        <v>383.52</v>
-      </c>
-      <c r="O162" t="n">
-        <v>394.04</v>
-      </c>
+        <v>397.0329153657805</v>
+      </c>
+      <c r="O162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5163,17 +5153,15 @@
         <v>1</v>
       </c>
       <c r="L163" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N163" t="n">
-        <v>384.4193818919974</v>
-      </c>
-      <c r="O163" t="n">
-        <v>384.4193818919974</v>
-      </c>
+        <v>401.52</v>
+      </c>
+      <c r="O163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5192,16 +5180,16 @@
         <v>1</v>
       </c>
       <c r="L164" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N164" t="n">
-        <v>384.4193818919974</v>
+        <v>403.0329153657805</v>
       </c>
       <c r="O164" t="n">
-        <v>430.4788017404347</v>
+        <v>412.0815581574828</v>
       </c>
     </row>
     <row r="165">
@@ -5227,3419 +5215,9 @@
         <v>2</v>
       </c>
       <c r="N165" t="n">
-        <v>385.3991260423069</v>
-      </c>
-      <c r="O165" t="n">
-        <v>385.3991260423069</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>1</v>
-      </c>
-      <c r="L166" t="n">
-        <v>7</v>
-      </c>
-      <c r="M166" t="n">
-        <v>3</v>
-      </c>
-      <c r="N166" t="n">
-        <v>385.3991260423069</v>
-      </c>
-      <c r="O166" t="n">
-        <v>402.124638324402</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>1</v>
-      </c>
-      <c r="L167" t="n">
-        <v>6</v>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="n">
-        <v>390.4193818919974</v>
-      </c>
-      <c r="O167" t="n">
-        <v>396.124638324402</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>1</v>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="n">
-        <v>2</v>
-      </c>
-      <c r="N168" t="n">
-        <v>394.04</v>
-      </c>
-      <c r="O168" t="n">
-        <v>423.52</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>1</v>
-      </c>
-      <c r="L169" t="n">
-        <v>6</v>
-      </c>
-      <c r="M169" t="n">
-        <v>2</v>
-      </c>
-      <c r="N169" t="n">
-        <v>396.124638324402</v>
-      </c>
-      <c r="O169" t="n">
-        <v>396.124638324402</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>1</v>
-      </c>
-      <c r="L170" t="n">
-        <v>6</v>
-      </c>
-      <c r="M170" t="n">
-        <v>3</v>
-      </c>
-      <c r="N170" t="n">
-        <v>396.124638324402</v>
-      </c>
-      <c r="O170" t="n">
-        <v>447.0488017404347</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr"/>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>1</v>
-      </c>
-      <c r="L171" t="n">
-        <v>4</v>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="n">
-        <v>401.52</v>
-      </c>
-      <c r="O171" t="n">
-        <v>424.4788017404347</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr"/>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>1</v>
-      </c>
-      <c r="L172" t="n">
-        <v>7</v>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="n">
-        <v>402.124638324402</v>
-      </c>
-      <c r="O172" t="n">
-        <v>411.1732811161043</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr"/>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>1</v>
-      </c>
-      <c r="L173" t="n">
-        <v>7</v>
-      </c>
-      <c r="M173" t="n">
-        <v>2</v>
-      </c>
-      <c r="N173" t="n">
-        <v>411.1732811161043</v>
-      </c>
-      <c r="O173" t="n">
-        <v>411.1732811161043</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>1</v>
-      </c>
-      <c r="L174" t="n">
-        <v>7</v>
-      </c>
-      <c r="M174" t="n">
-        <v>3</v>
-      </c>
-      <c r="N174" t="n">
-        <v>411.1732811161043</v>
-      </c>
-      <c r="O174" t="n">
-        <v>462.7779339641231</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr"/>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>1</v>
-      </c>
-      <c r="L175" t="n">
-        <v>2</v>
-      </c>
-      <c r="M175" t="n">
-        <v>2</v>
-      </c>
-      <c r="N175" t="n">
-        <v>423.52</v>
-      </c>
-      <c r="O175" t="n">
-        <v>423.52</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>1</v>
-      </c>
-      <c r="L176" t="n">
-        <v>2</v>
-      </c>
-      <c r="M176" t="n">
-        <v>3</v>
-      </c>
-      <c r="N176" t="n">
-        <v>423.52</v>
-      </c>
-      <c r="O176" t="n">
-        <v>423.52</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>1</v>
-      </c>
-      <c r="L177" t="n">
-        <v>2</v>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="n">
-        <v>423.52</v>
-      </c>
-      <c r="O177" t="n">
-        <v>463.52</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>1</v>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="n">
-        <v>3</v>
-      </c>
-      <c r="N178" t="n">
-        <v>423.52</v>
-      </c>
-      <c r="O178" t="n">
-        <v>423.52</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr"/>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>1</v>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="n">
-        <v>423.52</v>
-      </c>
-      <c r="O179" t="n">
-        <v>434.04</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>1</v>
-      </c>
-      <c r="L180" t="n">
-        <v>4</v>
-      </c>
-      <c r="M180" t="n">
-        <v>2</v>
-      </c>
-      <c r="N180" t="n">
-        <v>424.4788017404347</v>
-      </c>
-      <c r="O180" t="n">
-        <v>424.4788017404347</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>1</v>
-      </c>
-      <c r="L181" t="n">
-        <v>4</v>
-      </c>
-      <c r="M181" t="n">
-        <v>3</v>
-      </c>
-      <c r="N181" t="n">
-        <v>424.4788017404347</v>
-      </c>
-      <c r="O181" t="n">
-        <v>441.52</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>1</v>
-      </c>
-      <c r="L182" t="n">
-        <v>5</v>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="n">
-        <v>430.4788017404347</v>
-      </c>
-      <c r="O182" t="n">
-        <v>441.0488017404347</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>1</v>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="n">
-        <v>2</v>
-      </c>
-      <c r="N183" t="n">
-        <v>434.04</v>
-      </c>
-      <c r="O183" t="n">
-        <v>463.52</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>1</v>
-      </c>
-      <c r="L184" t="n">
-        <v>5</v>
-      </c>
-      <c r="M184" t="n">
-        <v>2</v>
-      </c>
-      <c r="N184" t="n">
-        <v>441.0488017404347</v>
-      </c>
-      <c r="O184" t="n">
-        <v>441.0488017404347</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>1</v>
-      </c>
-      <c r="L185" t="n">
-        <v>5</v>
-      </c>
-      <c r="M185" t="n">
-        <v>3</v>
-      </c>
-      <c r="N185" t="n">
-        <v>441.0488017404347</v>
-      </c>
-      <c r="O185" t="n">
-        <v>460.2788475158603</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr"/>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>1</v>
-      </c>
-      <c r="L186" t="n">
-        <v>4</v>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="n">
-        <v>441.52</v>
-      </c>
-      <c r="O186" t="n">
-        <v>454.2788475158603</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>1</v>
-      </c>
-      <c r="L187" t="n">
-        <v>6</v>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="n">
-        <v>447.0488017404347</v>
-      </c>
-      <c r="O187" t="n">
-        <v>456.7779339641231</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr"/>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>1</v>
-      </c>
-      <c r="L188" t="n">
-        <v>4</v>
-      </c>
-      <c r="M188" t="n">
-        <v>2</v>
-      </c>
-      <c r="N188" t="n">
-        <v>454.2788475158603</v>
-      </c>
-      <c r="O188" t="n">
-        <v>454.2788475158603</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>1</v>
-      </c>
-      <c r="L189" t="n">
-        <v>4</v>
-      </c>
-      <c r="M189" t="n">
-        <v>3</v>
-      </c>
-      <c r="N189" t="n">
-        <v>454.2788475158603</v>
-      </c>
-      <c r="O189" t="n">
-        <v>521.52</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>1</v>
-      </c>
-      <c r="L190" t="n">
-        <v>6</v>
-      </c>
-      <c r="M190" t="n">
-        <v>2</v>
-      </c>
-      <c r="N190" t="n">
-        <v>456.7779339641231</v>
-      </c>
-      <c r="O190" t="n">
-        <v>456.7779339641231</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr"/>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>1</v>
-      </c>
-      <c r="L191" t="n">
-        <v>6</v>
-      </c>
-      <c r="M191" t="n">
-        <v>3</v>
-      </c>
-      <c r="N191" t="n">
-        <v>456.7779339641231</v>
-      </c>
-      <c r="O191" t="n">
-        <v>476.8488475158603</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>1</v>
-      </c>
-      <c r="L192" t="n">
-        <v>5</v>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="n">
-        <v>460.2788475158603</v>
-      </c>
-      <c r="O192" t="n">
-        <v>470.8488475158603</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>1</v>
-      </c>
-      <c r="L193" t="n">
-        <v>7</v>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="n">
-        <v>462.7779339641231</v>
-      </c>
-      <c r="O193" t="n">
-        <v>471.8747151123295</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr"/>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>1</v>
-      </c>
-      <c r="L194" t="n">
-        <v>2</v>
-      </c>
-      <c r="M194" t="n">
-        <v>2</v>
-      </c>
-      <c r="N194" t="n">
-        <v>463.52</v>
-      </c>
-      <c r="O194" t="n">
-        <v>463.52</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>1</v>
-      </c>
-      <c r="L195" t="n">
-        <v>2</v>
-      </c>
-      <c r="M195" t="n">
-        <v>3</v>
-      </c>
-      <c r="N195" t="n">
-        <v>463.52</v>
-      </c>
-      <c r="O195" t="n">
-        <v>463.52</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>1</v>
-      </c>
-      <c r="L196" t="n">
-        <v>2</v>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="n">
-        <v>463.52</v>
-      </c>
-      <c r="O196" t="n">
-        <v>503.52</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>1</v>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="n">
-        <v>3</v>
-      </c>
-      <c r="N197" t="n">
-        <v>463.52</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>1</v>
-      </c>
-      <c r="L198" t="n">
-        <v>5</v>
-      </c>
-      <c r="M198" t="n">
-        <v>2</v>
-      </c>
-      <c r="N198" t="n">
-        <v>470.8488475158603</v>
-      </c>
-      <c r="O198" t="n">
-        <v>470.8488475158603</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr"/>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>1</v>
-      </c>
-      <c r="L199" t="n">
-        <v>5</v>
-      </c>
-      <c r="M199" t="n">
-        <v>3</v>
-      </c>
-      <c r="N199" t="n">
-        <v>470.8488475158603</v>
-      </c>
-      <c r="O199" t="n">
-        <v>541.9741255558991</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>1</v>
-      </c>
-      <c r="L200" t="n">
-        <v>7</v>
-      </c>
-      <c r="M200" t="n">
-        <v>2</v>
-      </c>
-      <c r="N200" t="n">
-        <v>471.8747151123295</v>
-      </c>
-      <c r="O200" t="n">
-        <v>471.8747151123295</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr"/>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>1</v>
-      </c>
-      <c r="L201" t="n">
-        <v>7</v>
-      </c>
-      <c r="M201" t="n">
-        <v>3</v>
-      </c>
-      <c r="N201" t="n">
-        <v>471.8747151123295</v>
-      </c>
-      <c r="O201" t="n">
-        <v>490.6526031715059</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="inlineStr"/>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>1</v>
-      </c>
-      <c r="L202" t="n">
-        <v>6</v>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="n">
-        <v>476.8488475158603</v>
-      </c>
-      <c r="O202" t="n">
-        <v>484.6526031715059</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="inlineStr"/>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>1</v>
-      </c>
-      <c r="L203" t="n">
-        <v>3</v>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="n">
-        <v>481.52</v>
-      </c>
-      <c r="O203" t="n">
-        <v>601.52</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="inlineStr"/>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>1</v>
-      </c>
-      <c r="L204" t="n">
-        <v>6</v>
-      </c>
-      <c r="M204" t="n">
-        <v>2</v>
-      </c>
-      <c r="N204" t="n">
-        <v>484.6526031715059</v>
-      </c>
-      <c r="O204" t="n">
-        <v>484.6526031715059</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="inlineStr"/>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>1</v>
-      </c>
-      <c r="L205" t="n">
-        <v>6</v>
-      </c>
-      <c r="M205" t="n">
-        <v>3</v>
-      </c>
-      <c r="N205" t="n">
-        <v>484.6526031715059</v>
-      </c>
-      <c r="O205" t="n">
-        <v>558.5441255558992</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="inlineStr"/>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>1</v>
-      </c>
-      <c r="L206" t="n">
-        <v>7</v>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="n">
-        <v>490.6526031715059</v>
-      </c>
-      <c r="O206" t="n">
-        <v>500.2632016734443</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="inlineStr"/>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>1</v>
-      </c>
-      <c r="L207" t="n">
-        <v>7</v>
-      </c>
-      <c r="M207" t="n">
-        <v>2</v>
-      </c>
-      <c r="N207" t="n">
-        <v>500.2632016734443</v>
-      </c>
-      <c r="O207" t="n">
-        <v>500.2632016734443</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="inlineStr"/>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>1</v>
-      </c>
-      <c r="L208" t="n">
-        <v>7</v>
-      </c>
-      <c r="M208" t="n">
-        <v>3</v>
-      </c>
-      <c r="N208" t="n">
-        <v>500.2632016734443</v>
-      </c>
-      <c r="O208" t="n">
-        <v>586.5542341969893</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="inlineStr"/>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>1</v>
-      </c>
-      <c r="L209" t="n">
-        <v>2</v>
-      </c>
-      <c r="M209" t="n">
-        <v>2</v>
-      </c>
-      <c r="N209" t="n">
-        <v>503.52</v>
-      </c>
-      <c r="O209" t="n">
-        <v>503.52</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="inlineStr"/>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>1</v>
-      </c>
-      <c r="L210" t="n">
-        <v>2</v>
-      </c>
-      <c r="M210" t="n">
-        <v>3</v>
-      </c>
-      <c r="N210" t="n">
-        <v>503.52</v>
-      </c>
-      <c r="O210" t="n">
-        <v>503.52</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>1</v>
-      </c>
-      <c r="L211" t="n">
-        <v>2</v>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="n">
-        <v>503.52</v>
-      </c>
-      <c r="O211" t="n">
-        <v>543.52</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>1</v>
-      </c>
-      <c r="L212" t="n">
-        <v>4</v>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="n">
-        <v>521.52</v>
-      </c>
-      <c r="O212" t="n">
-        <v>535.9741255558991</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>1</v>
-      </c>
-      <c r="L213" t="n">
-        <v>4</v>
-      </c>
-      <c r="M213" t="n">
-        <v>2</v>
-      </c>
-      <c r="N213" t="n">
-        <v>535.9741255558991</v>
-      </c>
-      <c r="O213" t="n">
-        <v>535.9741255558991</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="inlineStr"/>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>1</v>
-      </c>
-      <c r="L214" t="n">
-        <v>4</v>
-      </c>
-      <c r="M214" t="n">
-        <v>3</v>
-      </c>
-      <c r="N214" t="n">
-        <v>535.9741255558991</v>
-      </c>
-      <c r="O214" t="n">
-        <v>561.52</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="inlineStr"/>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>1</v>
-      </c>
-      <c r="L215" t="n">
-        <v>5</v>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="n">
-        <v>541.9741255558991</v>
-      </c>
-      <c r="O215" t="n">
-        <v>552.5441255558992</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="inlineStr"/>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>1</v>
-      </c>
-      <c r="L216" t="n">
-        <v>2</v>
-      </c>
-      <c r="M216" t="n">
-        <v>2</v>
-      </c>
-      <c r="N216" t="n">
-        <v>543.52</v>
-      </c>
-      <c r="O216" t="n">
-        <v>543.52</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="inlineStr"/>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>1</v>
-      </c>
-      <c r="L217" t="n">
-        <v>2</v>
-      </c>
-      <c r="M217" t="n">
-        <v>3</v>
-      </c>
-      <c r="N217" t="n">
-        <v>543.52</v>
-      </c>
-      <c r="O217" t="n">
-        <v>543.52</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="inlineStr"/>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>1</v>
-      </c>
-      <c r="L218" t="n">
-        <v>2</v>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="n">
-        <v>543.52</v>
-      </c>
-      <c r="O218" t="n">
-        <v>583.52</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="inlineStr"/>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>1</v>
-      </c>
-      <c r="L219" t="n">
-        <v>5</v>
-      </c>
-      <c r="M219" t="n">
-        <v>2</v>
-      </c>
-      <c r="N219" t="n">
-        <v>552.5441255558992</v>
-      </c>
-      <c r="O219" t="n">
-        <v>552.5441255558992</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="inlineStr"/>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>1</v>
-      </c>
-      <c r="L220" t="n">
-        <v>5</v>
-      </c>
-      <c r="M220" t="n">
-        <v>3</v>
-      </c>
-      <c r="N220" t="n">
-        <v>552.5441255558992</v>
-      </c>
-      <c r="O220" t="n">
-        <v>579.2332489126389</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="inlineStr"/>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>1</v>
-      </c>
-      <c r="L221" t="n">
-        <v>6</v>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="n">
-        <v>558.5441255558992</v>
-      </c>
-      <c r="O221" t="n">
-        <v>580.5542341969893</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="inlineStr"/>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>1</v>
-      </c>
-      <c r="L222" t="n">
-        <v>4</v>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="n">
-        <v>561.52</v>
-      </c>
-      <c r="O222" t="n">
-        <v>573.2332489126389</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="inlineStr"/>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>1</v>
-      </c>
-      <c r="L223" t="n">
-        <v>4</v>
-      </c>
-      <c r="M223" t="n">
-        <v>2</v>
-      </c>
-      <c r="N223" t="n">
-        <v>573.2332489126389</v>
-      </c>
-      <c r="O223" t="n">
-        <v>573.2332489126389</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="inlineStr"/>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>1</v>
-      </c>
-      <c r="L224" t="n">
-        <v>4</v>
-      </c>
-      <c r="M224" t="n">
-        <v>3</v>
-      </c>
-      <c r="N224" t="n">
-        <v>573.2332489126389</v>
-      </c>
-      <c r="O224" t="n">
-        <v>601.52</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="inlineStr"/>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>1</v>
-      </c>
-      <c r="L225" t="n">
-        <v>5</v>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="n">
-        <v>579.2332489126389</v>
-      </c>
-      <c r="O225" t="n">
-        <v>582.7332489126389</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="inlineStr"/>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>1</v>
-      </c>
-      <c r="L226" t="n">
-        <v>6</v>
-      </c>
-      <c r="M226" t="n">
-        <v>2</v>
-      </c>
-      <c r="N226" t="n">
-        <v>580.5542341969893</v>
-      </c>
-      <c r="O226" t="n">
-        <v>580.5542341969893</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="inlineStr"/>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>1</v>
-      </c>
-      <c r="L227" t="n">
-        <v>6</v>
-      </c>
-      <c r="M227" t="n">
-        <v>3</v>
-      </c>
-      <c r="N227" t="n">
-        <v>580.5542341969893</v>
-      </c>
-      <c r="O227" t="n">
-        <v>588.7332489126389</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="inlineStr"/>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>1</v>
-      </c>
-      <c r="L228" t="n">
-        <v>5</v>
-      </c>
-      <c r="M228" t="n">
-        <v>2</v>
-      </c>
-      <c r="N228" t="n">
-        <v>582.7332489126389</v>
-      </c>
-      <c r="O228" t="n">
-        <v>582.7332489126389</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="inlineStr"/>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>1</v>
-      </c>
-      <c r="L229" t="n">
-        <v>5</v>
-      </c>
-      <c r="M229" t="n">
-        <v>3</v>
-      </c>
-      <c r="N229" t="n">
-        <v>582.7332489126389</v>
-      </c>
-      <c r="O229" t="n">
-        <v>612.2010725460924</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="inlineStr"/>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>1</v>
-      </c>
-      <c r="L230" t="n">
-        <v>2</v>
-      </c>
-      <c r="M230" t="n">
-        <v>2</v>
-      </c>
-      <c r="N230" t="n">
-        <v>583.52</v>
-      </c>
-      <c r="O230" t="n">
-        <v>583.52</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="inlineStr"/>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>1</v>
-      </c>
-      <c r="L231" t="n">
-        <v>2</v>
-      </c>
-      <c r="M231" t="n">
-        <v>3</v>
-      </c>
-      <c r="N231" t="n">
-        <v>583.52</v>
-      </c>
-      <c r="O231" t="n">
-        <v>583.52</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="inlineStr"/>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>1</v>
-      </c>
-      <c r="L232" t="n">
-        <v>2</v>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="n">
-        <v>583.52</v>
-      </c>
-      <c r="O232" t="n">
-        <v>623.52</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="inlineStr"/>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>1</v>
-      </c>
-      <c r="L233" t="n">
-        <v>7</v>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="n">
-        <v>586.5542341969893</v>
-      </c>
-      <c r="O233" t="n">
-        <v>597.2085077039524</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="inlineStr"/>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>1</v>
-      </c>
-      <c r="L234" t="n">
-        <v>6</v>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="n">
-        <v>588.7332489126389</v>
-      </c>
-      <c r="O234" t="n">
-        <v>596.3236129044536</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>1</v>
-      </c>
-      <c r="L235" t="n">
-        <v>6</v>
-      </c>
-      <c r="M235" t="n">
-        <v>2</v>
-      </c>
-      <c r="N235" t="n">
-        <v>596.3236129044536</v>
-      </c>
-      <c r="O235" t="n">
-        <v>596.3236129044536</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="inlineStr"/>
-      <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>1</v>
-      </c>
-      <c r="L236" t="n">
-        <v>6</v>
-      </c>
-      <c r="M236" t="n">
-        <v>3</v>
-      </c>
-      <c r="N236" t="n">
-        <v>596.3236129044536</v>
-      </c>
-      <c r="O236" t="n">
-        <v>628.7710725460925</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="inlineStr"/>
-      <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr"/>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>1</v>
-      </c>
-      <c r="L237" t="n">
-        <v>7</v>
-      </c>
-      <c r="M237" t="n">
-        <v>2</v>
-      </c>
-      <c r="N237" t="n">
-        <v>597.2085077039524</v>
-      </c>
-      <c r="O237" t="n">
-        <v>597.2085077039524</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="inlineStr"/>
-      <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr"/>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>1</v>
-      </c>
-      <c r="L238" t="n">
-        <v>7</v>
-      </c>
-      <c r="M238" t="n">
-        <v>3</v>
-      </c>
-      <c r="N238" t="n">
-        <v>597.2085077039524</v>
-      </c>
-      <c r="O238" t="n">
-        <v>602.3236129044536</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="inlineStr"/>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr"/>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>1</v>
-      </c>
-      <c r="L239" t="n">
-        <v>3</v>
-      </c>
-      <c r="M239" t="n">
-        <v>2</v>
-      </c>
-      <c r="N239" t="n">
-        <v>601.52</v>
-      </c>
-      <c r="O239" t="n">
-        <v>601.52</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="inlineStr"/>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr"/>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>1</v>
-      </c>
-      <c r="L240" t="n">
-        <v>3</v>
-      </c>
-      <c r="M240" t="n">
-        <v>3</v>
-      </c>
-      <c r="N240" t="n">
-        <v>601.52</v>
-      </c>
-      <c r="O240" t="n">
-        <v>641.52</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="inlineStr"/>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr"/>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>1</v>
-      </c>
-      <c r="L241" t="n">
-        <v>4</v>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="n">
-        <v>601.52</v>
-      </c>
-      <c r="O241" t="n">
-        <v>606.2010725460924</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="inlineStr"/>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr"/>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>1</v>
-      </c>
-      <c r="L242" t="n">
-        <v>7</v>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="n">
-        <v>602.3236129044536</v>
-      </c>
-      <c r="O242" t="n">
-        <v>612.2846506296006</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="inlineStr"/>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr"/>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>1</v>
-      </c>
-      <c r="L243" t="n">
-        <v>4</v>
-      </c>
-      <c r="M243" t="n">
-        <v>2</v>
-      </c>
-      <c r="N243" t="n">
-        <v>606.2010725460924</v>
-      </c>
-      <c r="O243" t="n">
-        <v>606.2010725460924</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="inlineStr"/>
-      <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>1</v>
-      </c>
-      <c r="L244" t="n">
-        <v>4</v>
-      </c>
-      <c r="M244" t="n">
-        <v>3</v>
-      </c>
-      <c r="N244" t="n">
-        <v>606.2010725460924</v>
-      </c>
-      <c r="O244" t="n">
-        <v>613.52</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="inlineStr"/>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>1</v>
-      </c>
-      <c r="L245" t="n">
-        <v>5</v>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="n">
-        <v>612.2010725460924</v>
-      </c>
-      <c r="O245" t="n">
-        <v>622.7710725460925</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="inlineStr"/>
-      <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>1</v>
-      </c>
-      <c r="L246" t="n">
-        <v>7</v>
-      </c>
-      <c r="M246" t="n">
-        <v>2</v>
-      </c>
-      <c r="N246" t="n">
-        <v>612.2846506296006</v>
-      </c>
-      <c r="O246" t="n">
-        <v>612.2846506296006</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="inlineStr"/>
-      <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr"/>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>1</v>
-      </c>
-      <c r="L247" t="n">
-        <v>7</v>
-      </c>
-      <c r="M247" t="n">
-        <v>3</v>
-      </c>
-      <c r="N247" t="n">
-        <v>612.2846506296006</v>
-      </c>
-      <c r="O247" t="n">
-        <v>641.7269238719817</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="inlineStr"/>
-      <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr"/>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>1</v>
-      </c>
-      <c r="L248" t="n">
-        <v>4</v>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="n">
-        <v>613.52</v>
-      </c>
-      <c r="O248" t="n">
-        <v>623.7326794571653</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="inlineStr"/>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr"/>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>1</v>
-      </c>
-      <c r="L249" t="n">
-        <v>5</v>
-      </c>
-      <c r="M249" t="n">
-        <v>2</v>
-      </c>
-      <c r="N249" t="n">
-        <v>622.7710725460925</v>
-      </c>
-      <c r="O249" t="n">
-        <v>622.7710725460925</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="inlineStr"/>
-      <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr"/>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr"/>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>1</v>
-      </c>
-      <c r="L250" t="n">
-        <v>5</v>
-      </c>
-      <c r="M250" t="n">
-        <v>3</v>
-      </c>
-      <c r="N250" t="n">
-        <v>622.7710725460925</v>
-      </c>
-      <c r="O250" t="n">
-        <v>629.7326794571653</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="inlineStr"/>
-      <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr"/>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>1</v>
-      </c>
-      <c r="L251" t="n">
-        <v>2</v>
-      </c>
-      <c r="M251" t="n">
-        <v>2</v>
-      </c>
-      <c r="N251" t="n">
-        <v>623.52</v>
-      </c>
-      <c r="O251" t="n">
-        <v>623.52</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="inlineStr"/>
-      <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr"/>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>1</v>
-      </c>
-      <c r="L252" t="n">
-        <v>2</v>
-      </c>
-      <c r="M252" t="n">
-        <v>3</v>
-      </c>
-      <c r="N252" t="n">
-        <v>623.52</v>
-      </c>
-      <c r="O252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="inlineStr"/>
-      <c r="C253" t="inlineStr"/>
-      <c r="D253" t="inlineStr"/>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr"/>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>1</v>
-      </c>
-      <c r="L253" t="n">
-        <v>4</v>
-      </c>
-      <c r="M253" t="n">
-        <v>2</v>
-      </c>
-      <c r="N253" t="n">
-        <v>623.7326794571653</v>
-      </c>
-      <c r="O253" t="n">
-        <v>623.7326794571653</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="inlineStr"/>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr"/>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>1</v>
-      </c>
-      <c r="L254" t="n">
-        <v>4</v>
-      </c>
-      <c r="M254" t="n">
-        <v>3</v>
-      </c>
-      <c r="N254" t="n">
-        <v>623.7326794571653</v>
-      </c>
-      <c r="O254" t="n">
-        <v>773.52</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="inlineStr"/>
-      <c r="C255" t="inlineStr"/>
-      <c r="D255" t="inlineStr"/>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>1</v>
-      </c>
-      <c r="L255" t="n">
-        <v>6</v>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="n">
-        <v>628.7710725460925</v>
-      </c>
-      <c r="O255" t="n">
-        <v>635.7269238719817</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="inlineStr"/>
-      <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr"/>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>1</v>
-      </c>
-      <c r="L256" t="n">
-        <v>5</v>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="n">
-        <v>629.7326794571653</v>
-      </c>
-      <c r="O256" t="n">
-        <v>640.3026794571654</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="inlineStr"/>
-      <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr"/>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-      <c r="H257" t="inlineStr"/>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>1</v>
-      </c>
-      <c r="L257" t="n">
-        <v>6</v>
-      </c>
-      <c r="M257" t="n">
-        <v>2</v>
-      </c>
-      <c r="N257" t="n">
-        <v>635.7269238719817</v>
-      </c>
-      <c r="O257" t="n">
-        <v>635.7269238719817</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="inlineStr"/>
-      <c r="C258" t="inlineStr"/>
-      <c r="D258" t="inlineStr"/>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-      <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>1</v>
-      </c>
-      <c r="L258" t="n">
-        <v>6</v>
-      </c>
-      <c r="M258" t="n">
-        <v>3</v>
-      </c>
-      <c r="N258" t="n">
-        <v>635.7269238719817</v>
-      </c>
-      <c r="O258" t="n">
-        <v>646.3026794571654</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="inlineStr"/>
-      <c r="C259" t="inlineStr"/>
-      <c r="D259" t="inlineStr"/>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr"/>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>1</v>
-      </c>
-      <c r="L259" t="n">
-        <v>5</v>
-      </c>
-      <c r="M259" t="n">
-        <v>2</v>
-      </c>
-      <c r="N259" t="n">
-        <v>640.3026794571654</v>
-      </c>
-      <c r="O259" t="n">
-        <v>640.3026794571654</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="inlineStr"/>
-      <c r="C260" t="inlineStr"/>
-      <c r="D260" t="inlineStr"/>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr"/>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>1</v>
-      </c>
-      <c r="L260" t="n">
-        <v>5</v>
-      </c>
-      <c r="M260" t="n">
-        <v>3</v>
-      </c>
-      <c r="N260" t="n">
-        <v>640.3026794571654</v>
-      </c>
-      <c r="O260" t="n">
-        <v>783.428553239161</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="inlineStr"/>
-      <c r="C261" t="inlineStr"/>
-      <c r="D261" t="inlineStr"/>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>1</v>
-      </c>
-      <c r="L261" t="n">
-        <v>3</v>
-      </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="n">
-        <v>641.52</v>
-      </c>
-      <c r="O261" t="n">
-        <v>761.52</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="inlineStr"/>
-      <c r="C262" t="inlineStr"/>
-      <c r="D262" t="inlineStr"/>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>1</v>
-      </c>
-      <c r="L262" t="n">
-        <v>7</v>
-      </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="n">
-        <v>641.7269238719817</v>
-      </c>
-      <c r="O262" t="n">
-        <v>651.0485988884745</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="inlineStr"/>
-      <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr"/>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>1</v>
-      </c>
-      <c r="L263" t="n">
-        <v>6</v>
-      </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="n">
-        <v>646.3026794571654</v>
-      </c>
-      <c r="O263" t="n">
-        <v>693.7059938509537</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="inlineStr"/>
-      <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr"/>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>1</v>
-      </c>
-      <c r="L264" t="n">
-        <v>7</v>
-      </c>
-      <c r="M264" t="n">
-        <v>2</v>
-      </c>
-      <c r="N264" t="n">
-        <v>651.0485988884745</v>
-      </c>
-      <c r="O264" t="n">
-        <v>651.0485988884745</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="inlineStr"/>
-      <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr"/>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>1</v>
-      </c>
-      <c r="L265" t="n">
-        <v>7</v>
-      </c>
-      <c r="M265" t="n">
-        <v>3</v>
-      </c>
-      <c r="N265" t="n">
-        <v>651.0485988884745</v>
-      </c>
-      <c r="O265" t="n">
-        <v>699.7059938509537</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="inlineStr"/>
-      <c r="C266" t="inlineStr"/>
-      <c r="D266" t="inlineStr"/>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>1</v>
-      </c>
-      <c r="L266" t="n">
-        <v>6</v>
-      </c>
-      <c r="M266" t="n">
-        <v>2</v>
-      </c>
-      <c r="N266" t="n">
-        <v>693.7059938509537</v>
-      </c>
-      <c r="O266" t="n">
-        <v>693.7059938509537</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="inlineStr"/>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr"/>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>1</v>
-      </c>
-      <c r="L267" t="n">
-        <v>6</v>
-      </c>
-      <c r="M267" t="n">
-        <v>3</v>
-      </c>
-      <c r="N267" t="n">
-        <v>693.7059938509537</v>
-      </c>
-      <c r="O267" t="n">
-        <v>799.9985532391611</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="inlineStr"/>
-      <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr"/>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>1</v>
-      </c>
-      <c r="L268" t="n">
-        <v>7</v>
-      </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="n">
-        <v>699.7059938509537</v>
-      </c>
-      <c r="O268" t="n">
-        <v>709.0500374221147</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="inlineStr"/>
-      <c r="C269" t="inlineStr"/>
-      <c r="D269" t="inlineStr"/>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>1</v>
-      </c>
-      <c r="L269" t="n">
-        <v>7</v>
-      </c>
-      <c r="M269" t="n">
-        <v>2</v>
-      </c>
-      <c r="N269" t="n">
-        <v>709.0500374221147</v>
-      </c>
-      <c r="O269" t="n">
-        <v>709.0500374221147</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="inlineStr"/>
-      <c r="C270" t="inlineStr"/>
-      <c r="D270" t="inlineStr"/>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>1</v>
-      </c>
-      <c r="L270" t="n">
-        <v>7</v>
-      </c>
-      <c r="M270" t="n">
-        <v>3</v>
-      </c>
-      <c r="N270" t="n">
-        <v>709.0500374221147</v>
-      </c>
-      <c r="O270" t="n">
-        <v>844.9216684104721</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="inlineStr"/>
-      <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr"/>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr"/>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>1</v>
-      </c>
-      <c r="L271" t="n">
-        <v>3</v>
-      </c>
-      <c r="M271" t="n">
-        <v>2</v>
-      </c>
-      <c r="N271" t="n">
-        <v>761.52</v>
-      </c>
-      <c r="O271" t="n">
-        <v>761.52</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="inlineStr"/>
-      <c r="C272" t="inlineStr"/>
-      <c r="D272" t="inlineStr"/>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>1</v>
-      </c>
-      <c r="L272" t="n">
-        <v>3</v>
-      </c>
-      <c r="M272" t="n">
-        <v>3</v>
-      </c>
-      <c r="N272" t="n">
-        <v>761.52</v>
-      </c>
-      <c r="O272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="inlineStr"/>
-      <c r="C273" t="inlineStr"/>
-      <c r="D273" t="inlineStr"/>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>1</v>
-      </c>
-      <c r="L273" t="n">
-        <v>4</v>
-      </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="n">
-        <v>773.52</v>
-      </c>
-      <c r="O273" t="n">
-        <v>777.428553239161</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="inlineStr"/>
-      <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr"/>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>1</v>
-      </c>
-      <c r="L274" t="n">
-        <v>4</v>
-      </c>
-      <c r="M274" t="n">
-        <v>2</v>
-      </c>
-      <c r="N274" t="n">
-        <v>777.428553239161</v>
-      </c>
-      <c r="O274" t="n">
-        <v>777.428553239161</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="inlineStr"/>
-      <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr"/>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr"/>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>1</v>
-      </c>
-      <c r="L275" t="n">
-        <v>4</v>
-      </c>
-      <c r="M275" t="n">
-        <v>3</v>
-      </c>
-      <c r="N275" t="n">
-        <v>777.428553239161</v>
-      </c>
-      <c r="O275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="inlineStr"/>
-      <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr"/>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr"/>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>1</v>
-      </c>
-      <c r="L276" t="n">
-        <v>5</v>
-      </c>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="n">
-        <v>783.428553239161</v>
-      </c>
-      <c r="O276" t="n">
-        <v>793.9985532391611</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="inlineStr"/>
-      <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr"/>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-      <c r="H277" t="inlineStr"/>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>1</v>
-      </c>
-      <c r="L277" t="n">
-        <v>5</v>
-      </c>
-      <c r="M277" t="n">
-        <v>2</v>
-      </c>
-      <c r="N277" t="n">
-        <v>793.9985532391611</v>
-      </c>
-      <c r="O277" t="n">
-        <v>793.9985532391611</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="inlineStr"/>
-      <c r="C278" t="inlineStr"/>
-      <c r="D278" t="inlineStr"/>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>1</v>
-      </c>
-      <c r="L278" t="n">
-        <v>5</v>
-      </c>
-      <c r="M278" t="n">
-        <v>3</v>
-      </c>
-      <c r="N278" t="n">
-        <v>793.9985532391611</v>
-      </c>
-      <c r="O278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="inlineStr"/>
-      <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr"/>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-      <c r="H279" t="inlineStr"/>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>1</v>
-      </c>
-      <c r="L279" t="n">
-        <v>6</v>
-      </c>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="n">
-        <v>799.9985532391611</v>
-      </c>
-      <c r="O279" t="n">
-        <v>838.9216684104721</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="inlineStr"/>
-      <c r="C280" t="inlineStr"/>
-      <c r="D280" t="inlineStr"/>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-      <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>1</v>
-      </c>
-      <c r="L280" t="n">
-        <v>6</v>
-      </c>
-      <c r="M280" t="n">
-        <v>2</v>
-      </c>
-      <c r="N280" t="n">
-        <v>838.9216684104721</v>
-      </c>
-      <c r="O280" t="n">
-        <v>838.9216684104721</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="inlineStr"/>
-      <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr"/>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-      <c r="H281" t="inlineStr"/>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>1</v>
-      </c>
-      <c r="L281" t="n">
-        <v>6</v>
-      </c>
-      <c r="M281" t="n">
-        <v>3</v>
-      </c>
-      <c r="N281" t="n">
-        <v>838.9216684104721</v>
-      </c>
-      <c r="O281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="inlineStr"/>
-      <c r="C282" t="inlineStr"/>
-      <c r="D282" t="inlineStr"/>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-      <c r="H282" t="inlineStr"/>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>1</v>
-      </c>
-      <c r="L282" t="n">
-        <v>7</v>
-      </c>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="n">
-        <v>844.9216684104721</v>
-      </c>
-      <c r="O282" t="n">
-        <v>854.5655316432175</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="inlineStr"/>
-      <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr"/>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-      <c r="H283" t="inlineStr"/>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>1</v>
-      </c>
-      <c r="L283" t="n">
-        <v>7</v>
-      </c>
-      <c r="M283" t="n">
-        <v>2</v>
-      </c>
-      <c r="N283" t="n">
-        <v>854.5655316432175</v>
-      </c>
-      <c r="O283" t="inlineStr"/>
+        <v>412.0815581574828</v>
+      </c>
+      <c r="O165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
